--- a/leet code/Questions_list.xlsx
+++ b/leet code/Questions_list.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\basics\leet code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B95ACD7-7585-4EA5-A158-AF904D918967}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1032665A-E4B7-44FF-A059-583303B05AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2010AE69-5A70-43E0-9ECE-DC865E7C22C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{2010AE69-5A70-43E0-9ECE-DC865E7C22C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Google" sheetId="3" r:id="rId1"/>
-    <sheet name="Overall_top" sheetId="4" r:id="rId2"/>
-    <sheet name="Apple" sheetId="7" r:id="rId3"/>
-    <sheet name="Amazon" sheetId="1" r:id="rId4"/>
-    <sheet name="Uber" sheetId="9" r:id="rId5"/>
-    <sheet name="Microsoft" sheetId="10" r:id="rId6"/>
-    <sheet name="Facebook" sheetId="2" r:id="rId7"/>
-    <sheet name="LinkedInn" sheetId="5" r:id="rId8"/>
-    <sheet name="Topics" sheetId="6" r:id="rId9"/>
-    <sheet name="Adobe" sheetId="8" r:id="rId10"/>
-    <sheet name="Yelp" sheetId="11" r:id="rId11"/>
+    <sheet name="Overall_top" sheetId="4" r:id="rId1"/>
+    <sheet name="Amazon" sheetId="1" r:id="rId2"/>
+    <sheet name="dynami proograming" sheetId="12" r:id="rId3"/>
+    <sheet name="Google" sheetId="3" r:id="rId4"/>
+    <sheet name="Facebook" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId6"/>
+    <sheet name=" Online Assesments" sheetId="14" r:id="rId7"/>
+    <sheet name="Concepts" sheetId="15" r:id="rId8"/>
+    <sheet name="LinkedInn" sheetId="5" r:id="rId9"/>
+    <sheet name="Apple" sheetId="7" r:id="rId10"/>
+    <sheet name="Uber" sheetId="9" r:id="rId11"/>
+    <sheet name="Microsoft" sheetId="10" r:id="rId12"/>
+    <sheet name="Topics" sheetId="6" r:id="rId13"/>
+    <sheet name="Adobe" sheetId="8" r:id="rId14"/>
+    <sheet name="Yelp" sheetId="11" r:id="rId15"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Amazon!$A$1:$F$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Facebook!$A$1:$F$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="708">
   <si>
     <t>#</t>
   </si>
@@ -1400,6 +1408,819 @@
   </si>
   <si>
     <t xml:space="preserve">Importanat </t>
+  </si>
+  <si>
+    <t>Count Substrings with Only One Distinct Letter    </t>
+  </si>
+  <si>
+    <t>Single-Row Keyboard    </t>
+  </si>
+  <si>
+    <t>Remove Vowels from a String    </t>
+  </si>
+  <si>
+    <t>Greatest Common Divisor of Strings    </t>
+  </si>
+  <si>
+    <t>Index Pairs of a String    </t>
+  </si>
+  <si>
+    <t>Reorder Data in Log Files    </t>
+  </si>
+  <si>
+    <t>Long Pressed Name    </t>
+  </si>
+  <si>
+    <t>Groups of Special-Equivalent Strings    </t>
+  </si>
+  <si>
+    <t>Buddy Strings    </t>
+  </si>
+  <si>
+    <t>Similar RGB Color    </t>
+  </si>
+  <si>
+    <t>Rotated Digits    </t>
+  </si>
+  <si>
+    <t>Bold Words in String    </t>
+  </si>
+  <si>
+    <t>Count Binary Substrings    </t>
+  </si>
+  <si>
+    <t>Repeated String Match    </t>
+  </si>
+  <si>
+    <t>Construct String from Binary Tree    </t>
+  </si>
+  <si>
+    <t>Student Attendance Record I    </t>
+  </si>
+  <si>
+    <t>Reverse String II    </t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence I     </t>
+  </si>
+  <si>
+    <t>Detect Capital    </t>
+  </si>
+  <si>
+    <t>Repeated Substring Pattern    </t>
+  </si>
+  <si>
+    <t>check_ issues with leetcode solution</t>
+  </si>
+  <si>
+    <t>String Compression    </t>
+  </si>
+  <si>
+    <t>Number of Segments in a String    </t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Add Strings    </t>
+  </si>
+  <si>
+    <t>Valid Word Abbreviation    </t>
+  </si>
+  <si>
+    <t>Ransom Note    </t>
+  </si>
+  <si>
+    <t>yes - bad code</t>
+  </si>
+  <si>
+    <t>Reverse Vowels of a String    </t>
+  </si>
+  <si>
+    <t>Flip Game    </t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(N)</t>
+  </si>
+  <si>
+    <t>Length of Last Word    </t>
+  </si>
+  <si>
+    <t>O(NK)</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>Time complexity</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Numbers With Equal Digit Sum</t>
+  </si>
+  <si>
+    <t>Min Moves to Make String Without 3 Identical Consecutive Letters</t>
+  </si>
+  <si>
+    <t>Max Network Rank</t>
+  </si>
+  <si>
+    <t>Min Swaps to Make Palindrome</t>
+  </si>
+  <si>
+    <t>Longest Substring Without 2 Contiguous Occurrences of Letter</t>
+  </si>
+  <si>
+    <t>Lexicographically Smallest String</t>
+  </si>
+  <si>
+    <t>Min Deletions to Make Frequency of Each Letter Unique</t>
+  </si>
+  <si>
+    <t>String Without 3 Identical Consecutive Letters</t>
+  </si>
+  <si>
+    <t>Longest Semi-Alternating Substring</t>
+  </si>
+  <si>
+    <t>Min Steps to Make Piles Equal Height</t>
+  </si>
+  <si>
+    <t>Day of Week</t>
+  </si>
+  <si>
+    <t>Max Possible Value</t>
+  </si>
+  <si>
+    <t>Max Inserts to Obtain String Without 3 Consecutive 'a'</t>
+  </si>
+  <si>
+    <t>Concatenated String Length with unique Characters</t>
+  </si>
+  <si>
+    <t>Largest Integer</t>
+  </si>
+  <si>
+    <t>Min Swaps to Group Red Balls</t>
+  </si>
+  <si>
+    <t>Max Length of a Concatenated String with Unique Characters</t>
+  </si>
+  <si>
+    <t>Unique Integers That Sum Up To 0</t>
+  </si>
+  <si>
+    <t>Min Deletions To Obtain String in Right Format</t>
+  </si>
+  <si>
+    <t>Particle Velocity</t>
+  </si>
+  <si>
+    <t>Partition array into N subsets with balanced sum</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Compare Strings [Intern]</t>
+  </si>
+  <si>
+    <t>Largest Subarray Length K ⭐⭐⭐[Intern]</t>
+  </si>
+  <si>
+    <t>Maximum Time ⭐⭐⭐ [Intern]</t>
+  </si>
+  <si>
+    <t>Most Booked Hotel Room ⭐⭐⭐ [Intern]</t>
+  </si>
+  <si>
+    <t>Watering Flowers ⭐⭐⭐ [New Grad]</t>
+  </si>
+  <si>
+    <t>Minimum Domino Rotations For Equal Row ⭐⭐⭐ [New Grad]</t>
+  </si>
+  <si>
+    <t>Time to Type a String</t>
+  </si>
+  <si>
+    <t>Maximum Level Sum of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Min Number of Chairs</t>
+  </si>
+  <si>
+    <t>K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>Odd Even Jump</t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t>Unique Email Addresses</t>
+  </si>
+  <si>
+    <t>Fruit Into Baskets</t>
+  </si>
+  <si>
+    <t>Min Days to Bloom</t>
+  </si>
+  <si>
+    <t>Fill Matrix</t>
+  </si>
+  <si>
+    <t>Decreasing Subsequences</t>
+  </si>
+  <si>
+    <t>Max Distance</t>
+  </si>
+  <si>
+    <t>Stores and Houses</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Top N Competitors/Buzzwords ⭐⭐ [Experienced]</t>
+  </si>
+  <si>
+    <t>Zombie in Matrix ⭐⭐ [Experienced]</t>
+  </si>
+  <si>
+    <t>Critical Routers ⭐⭐ [New Grad | Experienced]</t>
+  </si>
+  <si>
+    <t>Product Suggestions ⭐⭐ [New Grad | Experienced]</t>
+  </si>
+  <si>
+    <t>Number of Clusters ⭐⭐ [Experienced]</t>
+  </si>
+  <si>
+    <t>Reorder Data in Log Files ⭐⭐⭐ [Experienced]</t>
+  </si>
+  <si>
+    <t>Optimal Utilization ⭐⭐⭐ [Experienced]</t>
+  </si>
+  <si>
+    <t>Min Cost to Connect Ropes / Min Time to Merge Files ⭐⭐⭐[Experienced]</t>
+  </si>
+  <si>
+    <t>Treasure Island / Min Distance to Remove the Obstacle (BFS) ⭐⭐⭐ [Experienced]</t>
+  </si>
+  <si>
+    <t>Treasure Island II</t>
+  </si>
+  <si>
+    <t>Find Pair With Given Sum ⭐⭐ [Experienced, Intern]</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer ⭐⭐ [New Grad]</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists ⭐⭐ [New Grad | Intern]</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree ⭐⭐ [New Grad]</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II ⭐⭐ [New Grad]</t>
+  </si>
+  <si>
+    <t>Critical Connections ⭐ [New Grad]</t>
+  </si>
+  <si>
+    <t>Favorite Genres ⭐⭐ [New Grad]</t>
+  </si>
+  <si>
+    <t>Two Sum - Unique Pairs ⭐⭐ [New Grad]</t>
+  </si>
+  <si>
+    <t>Spiral Matrix ⭐ [New Grad]</t>
+  </si>
+  <si>
+    <t>Count substrings with exactly K distinct chars ⭐ [Intern]</t>
+  </si>
+  <si>
+    <t>Max Of Min Altitudes ⭐⭐ [Intern]</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring ⭐⭐ [Intern]</t>
+  </si>
+  <si>
+    <t>Substrings of size K with K distinct chars ⭐⭐ [Intern]</t>
+  </si>
+  <si>
+    <t>Most Common Word ⭐⭐ [Intern]</t>
+  </si>
+  <si>
+    <t>Distance Between Nodes in BST</t>
+  </si>
+  <si>
+    <t>K Closest Points to Origin ⭐ [Intern]</t>
+  </si>
+  <si>
+    <t>Min Cost to Connect All Nodes (a.k.a. Min Cost to Add New Roads)</t>
+  </si>
+  <si>
+    <t>Min Cost to Repair Edges (MST)</t>
+  </si>
+  <si>
+    <t>Prison Cells After N Days</t>
+  </si>
+  <si>
+    <t>Partition Labels</t>
+  </si>
+  <si>
+    <t>Subtree with Maximum Average</t>
+  </si>
+  <si>
+    <t>Point of Lattice ⭐ [Experienced]</t>
+  </si>
+  <si>
+    <t>Merge Intervals ⭐</t>
+  </si>
+  <si>
+    <t>Roll Dice ⭐</t>
+  </si>
+  <si>
+    <t>Longest string without 3 consecutive characters</t>
+  </si>
+  <si>
+    <t>Longest string made up of only vowels</t>
+  </si>
+  <si>
+    <t>Nutanix</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>Replace every character in given string with nearest prime character.A prime character is a character whose asci is prime.</t>
+  </si>
+  <si>
+    <r>
+      <t>Location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> San Jose, CA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rounds:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Online Assessment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Degree:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MS in CS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Date:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> May, 2019</t>
+    </r>
+  </si>
+  <si>
+    <t>90 minutes Online Assessment. Test would shut itself if searched anything on web or switched windows.</t>
+  </si>
+  <si>
+    <t>Problem 1:</t>
+  </si>
+  <si>
+    <t>Given a binary string, you can transform it by toggling 1s to 0s and vice versa. You can make as many transformations as you want. Find out the maximum string weight you can get with given string as explained below:</t>
+  </si>
+  <si>
+    <t>Given 3 numbers:</t>
+  </si>
+  <si>
+    <t>Weight of a single pair = p</t>
+  </si>
+  <si>
+    <t>Weight of a single character = s</t>
+  </si>
+  <si>
+    <t>Weight of a single transformation = t</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Weight of the transformed string = p + s - t.</t>
+  </si>
+  <si>
+    <t>A character in a string can be counted only once - either for a pair or a single character.</t>
+  </si>
+  <si>
+    <t>2 adjacent characters are a pair only if they are different, i.e. 00 and 11 don't form a pair but 01 and 10 do.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/grumpy-bookstore-owner/</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Who should take this course?Preview</t>
+  </si>
+  <si>
+    <t>Course OverviewPreview</t>
+  </si>
+  <si>
+    <t>Pattern: Sliding Window</t>
+  </si>
+  <si>
+    <t>IntroductionPreview</t>
+  </si>
+  <si>
+    <t>Maximum Sum Subarray of Size K (easy)Preview</t>
+  </si>
+  <si>
+    <t>Smallest Subarray with a given sum (easy)Preview</t>
+  </si>
+  <si>
+    <t>Longest Substring with K Distinct Characters (medium)Preview</t>
+  </si>
+  <si>
+    <t>Fruits into Baskets (medium)</t>
+  </si>
+  <si>
+    <t>No-repeat Substring (hard)</t>
+  </si>
+  <si>
+    <t>Longest Substring with Same Letters after Replacement (hard)</t>
+  </si>
+  <si>
+    <t>Longest Subarray with Ones after Replacement (hard)</t>
+  </si>
+  <si>
+    <t>Problem Challenge 1</t>
+  </si>
+  <si>
+    <t>Solution Review: Problem Challenge 1</t>
+  </si>
+  <si>
+    <t>Problem Challenge 2</t>
+  </si>
+  <si>
+    <t>Solution Review: Problem Challenge 2</t>
+  </si>
+  <si>
+    <t>Problem Challenge 3</t>
+  </si>
+  <si>
+    <t>Solution Review: Problem Challenge 3</t>
+  </si>
+  <si>
+    <t>Problem Challenge 4</t>
+  </si>
+  <si>
+    <t>Solution Review: Problem Challenge 4</t>
+  </si>
+  <si>
+    <t>Pattern: Two Pointers</t>
+  </si>
+  <si>
+    <t>Pair with Target Sum (easy)</t>
+  </si>
+  <si>
+    <t>Remove Duplicates (easy)</t>
+  </si>
+  <si>
+    <t>Squaring a Sorted Array (easy)</t>
+  </si>
+  <si>
+    <t>Triplet Sum to Zero (medium)</t>
+  </si>
+  <si>
+    <t>Triplet Sum Close to Target (medium)</t>
+  </si>
+  <si>
+    <t>Triplets with Smaller Sum (medium)</t>
+  </si>
+  <si>
+    <t>Subarrays with Product Less than a Target (medium)</t>
+  </si>
+  <si>
+    <t>Dutch National Flag Problem (medium)</t>
+  </si>
+  <si>
+    <t>Pattern: Fast &amp; Slow pointers</t>
+  </si>
+  <si>
+    <t>LinkedList Cycle (easy)</t>
+  </si>
+  <si>
+    <t>Start of LinkedList Cycle (medium)</t>
+  </si>
+  <si>
+    <t>Happy Number (medium)</t>
+  </si>
+  <si>
+    <t>Middle of the LinkedList (easy)</t>
+  </si>
+  <si>
+    <t>Pattern: Merge Intervals</t>
+  </si>
+  <si>
+    <t>Merge Intervals (medium)Preview</t>
+  </si>
+  <si>
+    <t>Insert Interval (medium)Preview</t>
+  </si>
+  <si>
+    <t>Intervals Intersection (medium)Preview</t>
+  </si>
+  <si>
+    <t>Conflicting Appointments (medium)</t>
+  </si>
+  <si>
+    <t>Pattern: Cyclic Sort</t>
+  </si>
+  <si>
+    <t>Cyclic Sort (easy)</t>
+  </si>
+  <si>
+    <t>Find the Missing Number (easy)</t>
+  </si>
+  <si>
+    <t>Find all Missing Numbers (easy)</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number (easy)</t>
+  </si>
+  <si>
+    <t>Find all Duplicate Numbers (easy)</t>
+  </si>
+  <si>
+    <t>Pattern: In-place Reversal of a LinkedList</t>
+  </si>
+  <si>
+    <t>Reverse a LinkedList (easy)</t>
+  </si>
+  <si>
+    <t>Reverse a Sub-list (medium)</t>
+  </si>
+  <si>
+    <t>Reverse every K-element Sub-list (medium)</t>
+  </si>
+  <si>
+    <t>Pattern: Tree Breadth First Search</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal (easy)</t>
+  </si>
+  <si>
+    <t>Reverse Level Order Traversal (easy)</t>
+  </si>
+  <si>
+    <t>Zigzag Traversal (medium)</t>
+  </si>
+  <si>
+    <t>Level Averages in a Binary Tree (easy)</t>
+  </si>
+  <si>
+    <t>Minimum Depth of a Binary Tree (easy)</t>
+  </si>
+  <si>
+    <t>Level Order Successor (easy)</t>
+  </si>
+  <si>
+    <t>Connect Level Order Siblings (medium)</t>
+  </si>
+  <si>
+    <t>Pattern: Tree Depth First Search</t>
+  </si>
+  <si>
+    <t>Binary Tree Path Sum (easy)</t>
+  </si>
+  <si>
+    <t>All Paths for a Sum (medium)</t>
+  </si>
+  <si>
+    <t>Sum of Path Numbers (medium)</t>
+  </si>
+  <si>
+    <t>Path With Given Sequence (medium)</t>
+  </si>
+  <si>
+    <t>Count Paths for a Sum (medium)</t>
+  </si>
+  <si>
+    <t>Pattern: Two Heaps</t>
+  </si>
+  <si>
+    <t>Find the Median of a Number Stream (medium)</t>
+  </si>
+  <si>
+    <t>Sliding Window Median (hard)</t>
+  </si>
+  <si>
+    <t>Maximize Capital (hard)</t>
+  </si>
+  <si>
+    <t>Pattern: Subsets</t>
+  </si>
+  <si>
+    <t>Subsets (easy)Preview</t>
+  </si>
+  <si>
+    <t>Subsets With Duplicates (easy)Preview</t>
+  </si>
+  <si>
+    <t>Permutations (medium)Preview</t>
+  </si>
+  <si>
+    <t>String Permutations by changing case (medium)</t>
+  </si>
+  <si>
+    <t>Balanced Parentheses (hard)</t>
+  </si>
+  <si>
+    <t>Unique Generalized Abbreviations (hard)</t>
+  </si>
+  <si>
+    <t>Pattern: Modified Binary Search</t>
+  </si>
+  <si>
+    <t>Order-agnostic Binary Search (easy)</t>
+  </si>
+  <si>
+    <t>Ceiling of a Number (medium)</t>
+  </si>
+  <si>
+    <t>Next Letter (medium)</t>
+  </si>
+  <si>
+    <t>Number Range (medium)</t>
+  </si>
+  <si>
+    <t>Search in a Sorted Infinite Array (medium)</t>
+  </si>
+  <si>
+    <t>Minimum Difference Element (medium)</t>
+  </si>
+  <si>
+    <t>Bitonic Array Maximum (easy)</t>
+  </si>
+  <si>
+    <t>Pattern: Bitwise XOR</t>
+  </si>
+  <si>
+    <t>Single Number (easy)</t>
+  </si>
+  <si>
+    <t>Two Single Numbers (medium)</t>
+  </si>
+  <si>
+    <t>Complement of Base 10 Number (medium)</t>
+  </si>
+  <si>
+    <t>Pattern: Top 'K' Elements</t>
+  </si>
+  <si>
+    <t>Top 'K' Numbers (easy)</t>
+  </si>
+  <si>
+    <t>Kth Smallest Number (easy)</t>
+  </si>
+  <si>
+    <t>'K' Closest Points to the Origin (easy)</t>
+  </si>
+  <si>
+    <t>Connect Ropes (easy)</t>
+  </si>
+  <si>
+    <t>Top 'K' Frequent Numbers (medium)</t>
+  </si>
+  <si>
+    <t>Frequency Sort (medium)</t>
+  </si>
+  <si>
+    <t>Kth Largest Number in a Stream (medium)</t>
+  </si>
+  <si>
+    <t>'K' Closest Numbers (medium)</t>
+  </si>
+  <si>
+    <t>Maximum Distinct Elements (medium)</t>
+  </si>
+  <si>
+    <t>Sum of Elements (medium)</t>
+  </si>
+  <si>
+    <t>Rearrange String (hard)</t>
+  </si>
+  <si>
+    <t>Pattern: K-way merge</t>
+  </si>
+  <si>
+    <t>Merge K Sorted Lists (medium)</t>
+  </si>
+  <si>
+    <t>Kth Smallest Number in M Sorted Lists (Medium)</t>
+  </si>
+  <si>
+    <t>Kth Smallest Number in a Sorted Matrix (Hard)Preview</t>
+  </si>
+  <si>
+    <t>Smallest Number Range (Hard)</t>
+  </si>
+  <si>
+    <t>Pattern : 0/1 Knapsack (Dynamic Programming)</t>
+  </si>
+  <si>
+    <t>0/1 Knapsack (medium)</t>
+  </si>
+  <si>
+    <t>Equal Subset Sum Partition (medium)</t>
+  </si>
+  <si>
+    <t>Subset Sum (medium)</t>
+  </si>
+  <si>
+    <t>Minimum Subset Sum Difference (hard)</t>
+  </si>
+  <si>
+    <t>Pattern: Topological Sort (Graph)</t>
+  </si>
+  <si>
+    <t>Topological Sort (medium)</t>
+  </si>
+  <si>
+    <t>Tasks Scheduling (medium)</t>
+  </si>
+  <si>
+    <t>Tasks Scheduling Order (medium)</t>
+  </si>
+  <si>
+    <t>All Tasks Scheduling Orders (hard)</t>
+  </si>
+  <si>
+    <t>Alien Dictionary (hard)</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Kth Smallest Number (hard)</t>
+  </si>
+  <si>
+    <t>Conclusions</t>
+  </si>
+  <si>
+    <t>Where to Go from HerePreview</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +2406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1763,14 +2584,30 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1779,10 +2616,11 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2097,1550 +2935,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8190008-EF1A-4738-BBD5-0EAFAE14EE49}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="44">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="45"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>771</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="44">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="45"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
-        <v>929</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
-        <v>359</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="49">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
-        <v>844</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="44">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
-        <v>482</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="49">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="50"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
-        <v>246</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="49">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46">
-        <v>299</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="49">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="8" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="44">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="45"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
-        <v>42</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="44">
-        <v>0.443</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="45"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
-        <v>410</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="44">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="45"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
-        <v>57</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="44">
-        <v>0.316</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="45"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
-        <v>642</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="50"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
-        <v>158</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="45"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="46">
-        <v>843</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="50"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
-        <v>489</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="44">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="45"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="46">
-        <v>315</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="49">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="50"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
-        <v>975</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="44">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="46">
-        <v>753</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="50"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
-        <v>354</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="46">
-        <v>1096</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="49">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="50"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
-        <v>857</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="44">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="45"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="46">
-        <v>2</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49">
-        <v>0.316</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="50"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="46">
-        <v>200</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="50"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="46">
-        <v>15</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="49">
-        <v>0.246</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="50"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
-        <v>56</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="44">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="E27" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="45"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="46">
-        <v>253</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49">
-        <v>0.434</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="50"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="46">
-        <v>394</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="49">
-        <v>0.46</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="50"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="46">
-        <v>981</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="50"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
-        <v>222</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="44">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="45"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="46">
-        <v>399</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="49">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="E32" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="50"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
-        <v>353</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44">
-        <v>0.313</v>
-      </c>
-      <c r="E33" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="45"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="43">
-        <v>1057</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="E34" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="45"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="46">
-        <v>904</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="E35" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="50"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
-        <v>334</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="45"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43">
-        <v>947</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="44">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="45"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="46">
-        <v>247</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="49">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="E38" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="50"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43">
-        <v>241</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="45"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="46">
-        <v>743</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49">
-        <v>0.433</v>
-      </c>
-      <c r="E40" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="50"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="46">
-        <v>163</v>
-      </c>
-      <c r="B41" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="49">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="E41" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="50"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43">
-        <v>1011</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="44">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="E42" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="45"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43">
-        <v>1066</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="44">
-        <v>0.497</v>
-      </c>
-      <c r="E43" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="45"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="46">
-        <v>939</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="49">
-        <v>0.51</v>
-      </c>
-      <c r="E44" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="50"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43">
-        <v>731</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="44">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="E45" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="45"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43">
-        <v>833</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="44">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="E46" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="45"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="46">
-        <v>1007</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="E47" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="50"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43">
-        <v>1055</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="44">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="E48" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="45"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="46">
-        <v>1087</v>
-      </c>
-      <c r="B49" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="49">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="E49" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="50"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43">
-        <v>524</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="44">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="E50" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="45"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="51">
-        <v>809</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="54">
-        <v>0.442</v>
-      </c>
-      <c r="E51" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="55"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F51">
-    <sortCondition ref="E2:E51"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/two-sum" xr:uid="{557ADC3D-E0DB-4616-A904-44512F6C6C2A}"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://leetcode.com/articles/two-sum" xr:uid="{87D8D8B9-C393-4AA5-8754-A7610D163479}"/>
-    <hyperlink ref="B24" r:id="rId3" display="https://leetcode.com/problems/add-two-numbers" xr:uid="{B92A3EE6-692E-4B77-8E0C-B6B4226A3312}"/>
-    <hyperlink ref="C24" r:id="rId4" display="https://leetcode.com/articles/add-two-numbers" xr:uid="{01CB20EF-2B8A-4CA0-B785-B82A21A9F31C}"/>
-    <hyperlink ref="B10" r:id="rId5" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{5F54FF90-B71C-4392-988A-8B2C98B5201C}"/>
-    <hyperlink ref="C10" r:id="rId6" display="https://leetcode.com/articles/median-of-two-sorted-arrays" xr:uid="{79956397-E4F3-4D34-B74F-BB82E92334EA}"/>
-    <hyperlink ref="B25" r:id="rId7" display="https://leetcode.com/problems/number-of-islands" xr:uid="{B320F059-EE0A-463E-A5A9-F02FF8DB8025}"/>
-    <hyperlink ref="C25" r:id="rId8" display="https://leetcode.com/articles/number-of-islands" xr:uid="{17C32FF3-094B-460A-B534-481E5138347F}"/>
-    <hyperlink ref="B11" r:id="rId9" display="https://leetcode.com/problems/trapping-rain-water" xr:uid="{51252BCC-76C6-4A6E-A3B9-D8908CB90BA1}"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://leetcode.com/articles/trapping-rain-water" xr:uid="{2FBFC7B0-4233-478A-8AE0-270F78D95D7A}"/>
-    <hyperlink ref="B26" r:id="rId11" display="https://leetcode.com/problems/3sum" xr:uid="{00A82F6F-7014-463D-803F-0E6898184CA5}"/>
-    <hyperlink ref="B27" r:id="rId12" display="https://leetcode.com/problems/merge-intervals" xr:uid="{275B5B84-D431-4093-BC1A-1562713FEA25}"/>
-    <hyperlink ref="C27" r:id="rId13" display="https://leetcode.com/articles/merge-intervals" xr:uid="{DB521C87-2F00-46F3-85C5-B3F0691BD5FD}"/>
-    <hyperlink ref="B28" r:id="rId14" display="https://leetcode.com/problems/meeting-rooms-ii" xr:uid="{FF588AAA-0EF2-46C6-8F5E-AFAC31502446}"/>
-    <hyperlink ref="C28" r:id="rId15" display="https://leetcode.com/articles/meeting-rooms-ii" xr:uid="{2085F0A8-3063-4BED-A5C8-256AAEC46BD9}"/>
-    <hyperlink ref="B3" r:id="rId16" display="https://leetcode.com/problems/jewels-and-stones" xr:uid="{F01D1A79-2A0D-488B-ABBB-A59D7DA18B66}"/>
-    <hyperlink ref="C3" r:id="rId17" display="https://leetcode.com/articles/jewels-and-stones" xr:uid="{A579FE3E-F5D4-473D-A9CB-62B61A0C33BE}"/>
-    <hyperlink ref="B29" r:id="rId18" display="https://leetcode.com/problems/decode-string" xr:uid="{FE21C2CF-DA27-4C91-9B12-2325B6B0025B}"/>
-    <hyperlink ref="B12" r:id="rId19" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{7D57F264-A5DB-4747-9422-B7773DB81BFC}"/>
-    <hyperlink ref="C12" r:id="rId20" display="https://leetcode.com/articles/split-array-largest-sum" xr:uid="{151BD401-2D49-4651-B5AC-D03FED24898F}"/>
-    <hyperlink ref="B30" r:id="rId21" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{3F1B389E-6D82-42F4-AD32-86A80DDEE1D8}"/>
-    <hyperlink ref="C30" r:id="rId22" display="https://leetcode.com/articles/time-based-key-value-store" xr:uid="{15C35872-3C12-4A95-B3CF-35EA29CCDA93}"/>
-    <hyperlink ref="B13" r:id="rId23" display="https://leetcode.com/problems/insert-interval" xr:uid="{5B440C40-8E9C-455E-AC01-CCF239FC0500}"/>
-    <hyperlink ref="C13" r:id="rId24" display="https://leetcode.com/articles/insert-interval" xr:uid="{09F8C878-E91E-4B04-ADAD-B09FB70AFF1E}"/>
-    <hyperlink ref="B14" r:id="rId25" display="https://leetcode.com/problems/design-search-autocomplete-system" xr:uid="{51B78469-0382-4063-B605-38CC08BC43D7}"/>
-    <hyperlink ref="C14" r:id="rId26" display="https://leetcode.com/articles/design-search-autocomplete-system" xr:uid="{AF14C10E-85C4-4F1B-92CD-365ABA4BD52D}"/>
-    <hyperlink ref="B15" r:id="rId27" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times" xr:uid="{317C2BDC-5E40-4450-BC95-F232D750BE41}"/>
-    <hyperlink ref="B16" r:id="rId28" display="https://leetcode.com/problems/guess-the-word" xr:uid="{59FC6739-B8AC-4A1B-ADB0-BD711345B840}"/>
-    <hyperlink ref="C16" r:id="rId29" display="https://leetcode.com/articles/guess-the-word" xr:uid="{879EBF13-F69A-4657-84EB-C7C97DE5052D}"/>
-    <hyperlink ref="B17" r:id="rId30" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{70583F1A-1920-4E7C-B5EF-818EB8335A99}"/>
-    <hyperlink ref="C17" r:id="rId31" display="https://leetcode.com/articles/robot-room-cleaner" xr:uid="{4F60CEB0-9CD7-4F82-907E-7C911443AADA}"/>
-    <hyperlink ref="B18" r:id="rId32" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self" xr:uid="{C921381F-97CC-4511-9798-E4B842D0BA29}"/>
-    <hyperlink ref="B19" r:id="rId33" display="https://leetcode.com/problems/odd-even-jump" xr:uid="{03484EBA-BE6C-40C8-B7A8-95B97B09AFE4}"/>
-    <hyperlink ref="C19" r:id="rId34" display="https://leetcode.com/articles/odd-even-jump" xr:uid="{F84E9532-9AB9-42A0-9073-F5612E0CEB67}"/>
-    <hyperlink ref="B4" r:id="rId35" display="https://leetcode.com/problems/unique-email-addresses" xr:uid="{9659678A-5FA6-4116-8CB6-1D70840B9ED0}"/>
-    <hyperlink ref="C4" r:id="rId36" display="https://leetcode.com/articles/unique-email-addresses" xr:uid="{DCC006D6-2070-446C-BD53-35951D8F4196}"/>
-    <hyperlink ref="B31" r:id="rId37" display="https://leetcode.com/problems/count-complete-tree-nodes" xr:uid="{7CD2B87B-616F-4F1D-BE9B-595D4B295EB7}"/>
-    <hyperlink ref="C31" r:id="rId38" display="https://leetcode.com/articles/count-complete-tree-nodes" xr:uid="{CA40E27C-24D8-43B1-BC38-B32BECB6098F}"/>
-    <hyperlink ref="B32" r:id="rId39" display="https://leetcode.com/problems/evaluate-division" xr:uid="{3DC9F89D-A043-44A2-A69B-523DE9FEA18C}"/>
-    <hyperlink ref="B33" r:id="rId40" display="https://leetcode.com/problems/design-snake-game" xr:uid="{0949E9AE-EF33-4280-925E-7BECBAA7B1A4}"/>
-    <hyperlink ref="B20" r:id="rId41" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{C6FF5216-6417-4A0A-9D61-44A49C73EC16}"/>
-    <hyperlink ref="C20" r:id="rId42" display="https://leetcode.com/articles/cracking-the-safe" xr:uid="{15CC35AD-BAC3-4212-995C-F179ACCA988C}"/>
-    <hyperlink ref="B34" r:id="rId43" display="https://leetcode.com/problems/campus-bikes" xr:uid="{EF6E9028-68A3-464D-A57B-9033340A66B3}"/>
-    <hyperlink ref="B35" r:id="rId44" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{77C47338-C10B-44EA-B00B-BE0B6D221911}"/>
-    <hyperlink ref="C35" r:id="rId45" display="https://leetcode.com/articles/fruit-into-baskets" xr:uid="{478D24B4-0972-422E-921C-57BE6981517C}"/>
-    <hyperlink ref="B36" r:id="rId46" display="https://leetcode.com/problems/increasing-triplet-subsequence" xr:uid="{524C0325-13D8-403B-8BF6-DD68AAF139F1}"/>
-    <hyperlink ref="B5" r:id="rId47" display="https://leetcode.com/problems/logger-rate-limiter" xr:uid="{619B33E6-F84D-465A-A887-78727F4EF4A9}"/>
-    <hyperlink ref="B37" r:id="rId48" display="https://leetcode.com/problems/most-stones-removed-with-same-row-or-column" xr:uid="{25E24F1A-8193-4EAB-98B5-271CB773F33A}"/>
-    <hyperlink ref="C37" r:id="rId49" display="https://leetcode.com/articles/most-stones-removed-with-same-row-or-column" xr:uid="{1F90DF26-1748-46A7-9BE5-90495C5CFF54}"/>
-    <hyperlink ref="B38" r:id="rId50" display="https://leetcode.com/problems/strobogrammatic-number-ii" xr:uid="{D2405682-B2B6-42AA-BFA4-13276370FC15}"/>
-    <hyperlink ref="B39" r:id="rId51" display="https://leetcode.com/problems/different-ways-to-add-parentheses" xr:uid="{10A4D925-B182-4A3B-B992-2EE9EFDDFE07}"/>
-    <hyperlink ref="B40" r:id="rId52" display="https://leetcode.com/problems/network-delay-time" xr:uid="{46A99B1E-B766-4300-A29B-86B88A295B81}"/>
-    <hyperlink ref="C40" r:id="rId53" display="https://leetcode.com/articles/network-delay-time" xr:uid="{34E596DA-1345-43E9-A7F8-0431C29FCBEA}"/>
-    <hyperlink ref="B6" r:id="rId54" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{79DBCFB1-B604-4274-AD84-2B4775881509}"/>
-    <hyperlink ref="C6" r:id="rId55" display="https://leetcode.com/articles/backspace-string-compare" xr:uid="{C7DA1E3F-B916-4DE0-894F-34F1DBFA6C92}"/>
-    <hyperlink ref="B41" r:id="rId56" display="https://leetcode.com/problems/missing-ranges" xr:uid="{B9479734-63A8-4239-A699-A194C7414CC8}"/>
-    <hyperlink ref="B21" r:id="rId57" display="https://leetcode.com/problems/russian-doll-envelopes" xr:uid="{77AE79E5-0E3A-4F21-9F98-652D61752F01}"/>
-    <hyperlink ref="B7" r:id="rId58" display="https://leetcode.com/problems/license-key-formatting" xr:uid="{BFE6E29D-4AFE-4584-8104-18CFD3E65B19}"/>
-    <hyperlink ref="B42" r:id="rId59" display="https://leetcode.com/problems/capacity-to-ship-packages-within-d-days" xr:uid="{FE91C7B4-8A1E-4A00-92EC-3FE0FD17CA35}"/>
-    <hyperlink ref="B22" r:id="rId60" display="https://leetcode.com/problems/brace-expansion-ii" xr:uid="{019305D9-EC58-4FB0-B48B-DEFCA49378C4}"/>
-    <hyperlink ref="B23" r:id="rId61" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{BD7C3A98-3BD3-447A-8808-B6C163503630}"/>
-    <hyperlink ref="C23" r:id="rId62" display="https://leetcode.com/articles/minimum-cost-to-hire-k-workers" xr:uid="{FFA9ABB2-A288-48DE-8296-A3980B1A84C1}"/>
-    <hyperlink ref="B8" r:id="rId63" display="https://leetcode.com/problems/strobogrammatic-number" xr:uid="{7182461C-51F0-4461-9DA2-EFCC231E99E0}"/>
-    <hyperlink ref="B43" r:id="rId64" display="https://leetcode.com/problems/campus-bikes-ii" xr:uid="{11CE855D-7A7A-4E21-9ED4-E1519229EF56}"/>
-    <hyperlink ref="B44" r:id="rId65" display="https://leetcode.com/problems/minimum-area-rectangle" xr:uid="{06136C38-34EF-461D-AEC2-039B0728D08F}"/>
-    <hyperlink ref="C44" r:id="rId66" display="https://leetcode.com/articles/minimum-area-rectangle" xr:uid="{74770153-DD04-420D-ADA0-CF1C6C88AE2E}"/>
-    <hyperlink ref="B45" r:id="rId67" display="https://leetcode.com/problems/my-calendar-ii" xr:uid="{0C8BEFF1-A557-4829-9520-C7FE31BEA2CC}"/>
-    <hyperlink ref="C45" r:id="rId68" display="https://leetcode.com/articles/my-calendar-ii" xr:uid="{53BDB16A-B91B-47D7-9C3E-52021846DA14}"/>
-    <hyperlink ref="B9" r:id="rId69" display="https://leetcode.com/problems/bulls-and-cows" xr:uid="{4CD88399-19B3-4BA4-B665-EFA13EA1E812}"/>
-    <hyperlink ref="B46" r:id="rId70" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{AC101671-C5A3-43B8-9EA7-5054AD6FB6E6}"/>
-    <hyperlink ref="C46" r:id="rId71" display="https://leetcode.com/articles/find-and-replace-in-string" xr:uid="{5D4AE337-26E7-4393-A310-D79C4060A42E}"/>
-    <hyperlink ref="B47" r:id="rId72" display="https://leetcode.com/problems/minimum-domino-rotations-for-equal-row" xr:uid="{9163151B-CDBA-4E47-AD07-6E7D871481FC}"/>
-    <hyperlink ref="C47" r:id="rId73" display="https://leetcode.com/articles/minimum-domino-rotations-for-equal-row" xr:uid="{B7870A44-BB2C-4F1F-B55F-FF3D5F43D20E}"/>
-    <hyperlink ref="B48" r:id="rId74" display="https://leetcode.com/problems/shortest-way-to-form-string" xr:uid="{1A5F326A-1F7A-4EDE-89E9-A9FF63037BF5}"/>
-    <hyperlink ref="B49" r:id="rId75" display="https://leetcode.com/problems/brace-expansion" xr:uid="{B102E92F-1114-4DAD-ADAA-08ED9D270831}"/>
-    <hyperlink ref="B50" r:id="rId76" display="https://leetcode.com/problems/longest-word-in-dictionary-through-deleting" xr:uid="{DE45F942-DA74-4601-AB48-5F0B01B3B881}"/>
-    <hyperlink ref="C50" r:id="rId77" display="https://leetcode.com/articles/longest-word-in-dictionary-through-deletion" xr:uid="{D844D976-7E65-46B3-93FC-26FD0B02A047}"/>
-    <hyperlink ref="B51" r:id="rId78" display="https://leetcode.com/problems/expressive-words" xr:uid="{1EE180D9-F97F-4052-B8BB-5C4F3A990460}"/>
-    <hyperlink ref="C51" r:id="rId79" display="https://leetcode.com/articles/expressive-words" xr:uid="{C8229CFA-4F10-4504-9859-5C2503E3605A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE02E1B-96EA-49E5-A9C7-25D883C39D67}">
-  <dimension ref="A1:A64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="65" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="65" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="64" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="65" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="65" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="65" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="65" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="64" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="65" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="65" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="65" t="s">
-        <v>369</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69115777-D85C-4596-9341-AC4E70B14401}">
-  <dimension ref="A1:A50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="64" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65" t="s">
-        <v>434</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81100370-E0A5-4ECA-B59D-2D7D294648EA}">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E70" sqref="E49:E70"/>
     </sheetView>
   </sheetViews>
@@ -6255,7 +5553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63317CD-699B-40F3-A728-2E07A976B8B9}">
   <dimension ref="A1:A403"/>
   <sheetViews>
@@ -8070,12 +7368,1390 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C37092-25F8-4E14-BED5-4A826216F71D}">
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="65" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="65" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="65" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="65" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="65" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="65" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="65" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="65" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="65" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="65" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="65" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="65" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="65" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="65" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="65" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="65" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="65" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="65" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="65" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="65" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="65" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="65" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="65" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="65" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="65" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="65" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="65" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="65" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="65" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="65" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="65" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6091F2C-B2B7-431E-8D05-404FBEF7F03C}">
+  <dimension ref="A1:A66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="65" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="65" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="65" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="65" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="65" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="65" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="65" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="65" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="65" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="65" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="65" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="65" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="65" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="65" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="65" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="65" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="65" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="65" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="65" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="65" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="65" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="65" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="65" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="65" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="64" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="65" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="65" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="65" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="64" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="65" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="65" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="65" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="65" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2622E9F0-D204-440B-AF73-6DE69631CC00}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>1114</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34">
+        <v>0.59</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
+        <v>1117</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="38">
+        <v>0.51</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>1115</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>1116</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="40"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://leetcode.com/problems/print-in-order" xr:uid="{C77CFB35-3DDF-4B13-B6E6-B7C884B41030}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://leetcode.com/problems/building-h2o" xr:uid="{28E944D3-3169-42C5-B1A1-76DFFC43B3A8}"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://leetcode.com/problems/print-foobar-alternately" xr:uid="{243A77BB-0966-41FE-A261-4EDDD0607808}"/>
+    <hyperlink ref="B8" r:id="rId4" display="https://leetcode.com/problems/print-zero-even-odd" xr:uid="{020799DB-7D28-4A7F-A158-F871F5CE6C49}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE02E1B-96EA-49E5-A9C7-25D883C39D67}">
+  <dimension ref="A1:A64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="65" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="65" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="65" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="65" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="65" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="65" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="65" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="65" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="65" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="65" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="65" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="65" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="65" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="65" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="65" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="65" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="65" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="65" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="64" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="65" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="65" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="65" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="65" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="65" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="65" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="65" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="65" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="64" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="65" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="65" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="65" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="65" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69115777-D85C-4596-9341-AC4E70B14401}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="65" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="65" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="65" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="65" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="65" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="65" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="65" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="65" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="65" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="65" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="65" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="65" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="65" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="65" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDCB464-6BEE-4E9A-8982-9E3A1144E6F1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8125,7 +8801,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -8141,7 +8817,7 @@
       </c>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>146</v>
       </c>
@@ -8157,7 +8833,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -8173,7 +8849,7 @@
       </c>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -8189,7 +8865,7 @@
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>200</v>
       </c>
@@ -8205,7 +8881,7 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>42</v>
       </c>
@@ -8221,7 +8897,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>3</v>
       </c>
@@ -8237,7 +8913,7 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>15</v>
       </c>
@@ -8253,7 +8929,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>973</v>
       </c>
@@ -8285,7 +8961,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>23</v>
       </c>
@@ -8301,7 +8977,7 @@
       </c>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>273</v>
       </c>
@@ -8333,7 +9009,7 @@
       </c>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>253</v>
       </c>
@@ -8365,7 +9041,7 @@
       </c>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>297</v>
       </c>
@@ -8381,7 +9057,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>49</v>
       </c>
@@ -8397,7 +9073,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>380</v>
       </c>
@@ -8413,7 +9089,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>295</v>
       </c>
@@ -8429,7 +9105,7 @@
       </c>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>269</v>
       </c>
@@ -8445,7 +9121,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>138</v>
       </c>
@@ -8461,7 +9137,7 @@
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>139</v>
       </c>
@@ -8477,7 +9153,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>127</v>
       </c>
@@ -8493,7 +9169,7 @@
       </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>341</v>
       </c>
@@ -8509,7 +9185,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>103</v>
       </c>
@@ -8525,7 +9201,7 @@
       </c>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>124</v>
       </c>
@@ -8541,7 +9217,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>692</v>
       </c>
@@ -8557,7 +9233,7 @@
       </c>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>126</v>
       </c>
@@ -8573,7 +9249,7 @@
       </c>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>45</v>
       </c>
@@ -8589,7 +9265,7 @@
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>772</v>
       </c>
@@ -8605,7 +9281,7 @@
       </c>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>340</v>
       </c>
@@ -8621,7 +9297,7 @@
       </c>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>642</v>
       </c>
@@ -8637,7 +9313,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>212</v>
       </c>
@@ -8653,7 +9329,7 @@
       </c>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>348</v>
       </c>
@@ -8669,7 +9345,7 @@
       </c>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>207</v>
       </c>
@@ -8701,7 +9377,7 @@
       </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>314</v>
       </c>
@@ -8717,7 +9393,7 @@
       </c>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>763</v>
       </c>
@@ -8733,7 +9409,7 @@
       </c>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>957</v>
       </c>
@@ -8749,7 +9425,7 @@
       </c>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>165</v>
       </c>
@@ -8765,7 +9441,7 @@
       </c>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>909</v>
       </c>
@@ -8781,7 +9457,7 @@
       </c>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>863</v>
       </c>
@@ -8797,7 +9473,7 @@
       </c>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>472</v>
       </c>
@@ -8813,7 +9489,7 @@
       </c>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>545</v>
       </c>
@@ -8845,7 +9521,7 @@
       </c>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>588</v>
       </c>
@@ -8861,7 +9537,7 @@
       </c>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>1000</v>
       </c>
@@ -8877,7 +9553,7 @@
       </c>
       <c r="F49" s="16"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>505</v>
       </c>
@@ -8893,31 +9569,38 @@
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="68">
+    <row r="51" spans="1:6" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="74">
         <v>675</v>
       </c>
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="71">
+      <c r="C51" s="76"/>
+      <c r="D51" s="77">
         <v>0.315</v>
       </c>
-      <c r="E51" s="72" t="s">
+      <c r="E51" s="78" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="73"/>
     </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="72"/>
+    <row r="52" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="74"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="78"/>
       <c r="F52" s="73"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F52" xr:uid="{1EA3D514-D9E9-42C5-9DB1-C0AC489FDCD2}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Easy"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="A51:A52"/>
@@ -9018,683 +9701,1004 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C37092-25F8-4E14-BED5-4A826216F71D}">
-  <dimension ref="A1:A61"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E605E4AE-859B-4373-B074-869C8BAEB181}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A61"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="64" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="65" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="65" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="64" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="65" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="65" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="65" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="65" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="65" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="65" t="s">
-        <v>407</v>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>121</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="15">
+        <v>0.48</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock" xr:uid="{CD7A1E58-49CE-4C71-8FF2-3940F58719B7}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://leetcode.com/articles/best-time-to-buy-and-sell-stock" xr:uid="{8E60ABDE-6A20-4AE3-9B91-D06B70B7C159}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6091F2C-B2B7-431E-8D05-404FBEF7F03C}">
-  <dimension ref="A1:A66"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8190008-EF1A-4738-BBD5-0EAFAE14EE49}">
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A66"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="43">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="44">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="45"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>771</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="44">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
+        <v>929</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
+        <v>359</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="49">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>844</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="44">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="45"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
+        <v>482</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="49">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
+        <v>246</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="49">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
+        <v>299</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="49">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="44">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="45"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="44">
+        <v>0.443</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="45"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
         <v>410</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="64" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="65" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="64" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="65" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="64" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="65" t="s">
+      <c r="B12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="44">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="45"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="43">
+        <v>57</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="44">
+        <v>0.316</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="45"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
+        <v>642</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
+        <v>158</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="45"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="46">
+        <v>843</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="50"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
+        <v>489</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="44">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="45"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="46">
+        <v>315</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="49">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="50"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
+        <v>975</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="44">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="45"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="46">
+        <v>753</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="50"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="43">
+        <v>354</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="45"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="46">
+        <v>1096</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="49">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="50"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="43">
+        <v>857</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="44">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="45"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="46">
+        <v>2</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49">
+        <v>0.316</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="46">
+        <v>200</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="46">
+        <v>15</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="49">
+        <v>0.246</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="43">
+        <v>56</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="44">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="45"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="46">
+        <v>253</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49">
+        <v>0.434</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="50"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="46">
         <v>394</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="65" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="65" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="64" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="65" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="65" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="65" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="65" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="65" t="s">
-        <v>435</v>
-      </c>
+      <c r="B29" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="49">
+        <v>0.46</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="50"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="46">
+        <v>981</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="50"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
+        <v>222</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="44">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="45"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="46">
+        <v>399</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="49">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="50"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="43">
+        <v>353</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44">
+        <v>0.313</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="45"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="43">
+        <v>1057</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="45"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="46">
+        <v>904</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="43">
+        <v>334</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="45"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="43">
+        <v>947</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="44">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="45"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="46">
+        <v>247</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="49">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="50"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="43">
+        <v>241</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="45"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="46">
+        <v>743</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49">
+        <v>0.433</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="50"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="46">
+        <v>163</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="49">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="50"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="43">
+        <v>1011</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="44">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="E42" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="45"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="43">
+        <v>1066</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="44">
+        <v>0.497</v>
+      </c>
+      <c r="E43" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="45"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="46">
+        <v>939</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49">
+        <v>0.51</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="50"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="43">
+        <v>731</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="44">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E45" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="45"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="43">
+        <v>833</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="44">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="E46" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="45"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="46">
+        <v>1007</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="50"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="43">
+        <v>1055</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="44">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E48" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="45"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="46">
+        <v>1087</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="46"/>
+      <c r="D49" s="49">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="50"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="43">
+        <v>524</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="44">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="E50" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="45"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="51">
+        <v>809</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54">
+        <v>0.442</v>
+      </c>
+      <c r="E51" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="55"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F51">
+    <sortCondition ref="E2:E51"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/two-sum" xr:uid="{557ADC3D-E0DB-4616-A904-44512F6C6C2A}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://leetcode.com/articles/two-sum" xr:uid="{87D8D8B9-C393-4AA5-8754-A7610D163479}"/>
+    <hyperlink ref="B24" r:id="rId3" display="https://leetcode.com/problems/add-two-numbers" xr:uid="{B92A3EE6-692E-4B77-8E0C-B6B4226A3312}"/>
+    <hyperlink ref="C24" r:id="rId4" display="https://leetcode.com/articles/add-two-numbers" xr:uid="{01CB20EF-2B8A-4CA0-B785-B82A21A9F31C}"/>
+    <hyperlink ref="B10" r:id="rId5" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{5F54FF90-B71C-4392-988A-8B2C98B5201C}"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://leetcode.com/articles/median-of-two-sorted-arrays" xr:uid="{79956397-E4F3-4D34-B74F-BB82E92334EA}"/>
+    <hyperlink ref="B25" r:id="rId7" display="https://leetcode.com/problems/number-of-islands" xr:uid="{B320F059-EE0A-463E-A5A9-F02FF8DB8025}"/>
+    <hyperlink ref="C25" r:id="rId8" display="https://leetcode.com/articles/number-of-islands" xr:uid="{17C32FF3-094B-460A-B534-481E5138347F}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://leetcode.com/problems/trapping-rain-water" xr:uid="{51252BCC-76C6-4A6E-A3B9-D8908CB90BA1}"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://leetcode.com/articles/trapping-rain-water" xr:uid="{2FBFC7B0-4233-478A-8AE0-270F78D95D7A}"/>
+    <hyperlink ref="B26" r:id="rId11" display="https://leetcode.com/problems/3sum" xr:uid="{00A82F6F-7014-463D-803F-0E6898184CA5}"/>
+    <hyperlink ref="B27" r:id="rId12" display="https://leetcode.com/problems/merge-intervals" xr:uid="{275B5B84-D431-4093-BC1A-1562713FEA25}"/>
+    <hyperlink ref="C27" r:id="rId13" display="https://leetcode.com/articles/merge-intervals" xr:uid="{DB521C87-2F00-46F3-85C5-B3F0691BD5FD}"/>
+    <hyperlink ref="B28" r:id="rId14" display="https://leetcode.com/problems/meeting-rooms-ii" xr:uid="{FF588AAA-0EF2-46C6-8F5E-AFAC31502446}"/>
+    <hyperlink ref="C28" r:id="rId15" display="https://leetcode.com/articles/meeting-rooms-ii" xr:uid="{2085F0A8-3063-4BED-A5C8-256AAEC46BD9}"/>
+    <hyperlink ref="B3" r:id="rId16" display="https://leetcode.com/problems/jewels-and-stones" xr:uid="{F01D1A79-2A0D-488B-ABBB-A59D7DA18B66}"/>
+    <hyperlink ref="C3" r:id="rId17" display="https://leetcode.com/articles/jewels-and-stones" xr:uid="{A579FE3E-F5D4-473D-A9CB-62B61A0C33BE}"/>
+    <hyperlink ref="B29" r:id="rId18" display="https://leetcode.com/problems/decode-string" xr:uid="{FE21C2CF-DA27-4C91-9B12-2325B6B0025B}"/>
+    <hyperlink ref="B12" r:id="rId19" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{7D57F264-A5DB-4747-9422-B7773DB81BFC}"/>
+    <hyperlink ref="C12" r:id="rId20" display="https://leetcode.com/articles/split-array-largest-sum" xr:uid="{151BD401-2D49-4651-B5AC-D03FED24898F}"/>
+    <hyperlink ref="B30" r:id="rId21" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{3F1B389E-6D82-42F4-AD32-86A80DDEE1D8}"/>
+    <hyperlink ref="C30" r:id="rId22" display="https://leetcode.com/articles/time-based-key-value-store" xr:uid="{15C35872-3C12-4A95-B3CF-35EA29CCDA93}"/>
+    <hyperlink ref="B13" r:id="rId23" display="https://leetcode.com/problems/insert-interval" xr:uid="{5B440C40-8E9C-455E-AC01-CCF239FC0500}"/>
+    <hyperlink ref="C13" r:id="rId24" display="https://leetcode.com/articles/insert-interval" xr:uid="{09F8C878-E91E-4B04-ADAD-B09FB70AFF1E}"/>
+    <hyperlink ref="B14" r:id="rId25" display="https://leetcode.com/problems/design-search-autocomplete-system" xr:uid="{51B78469-0382-4063-B605-38CC08BC43D7}"/>
+    <hyperlink ref="C14" r:id="rId26" display="https://leetcode.com/articles/design-search-autocomplete-system" xr:uid="{AF14C10E-85C4-4F1B-92CD-365ABA4BD52D}"/>
+    <hyperlink ref="B15" r:id="rId27" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times" xr:uid="{317C2BDC-5E40-4450-BC95-F232D750BE41}"/>
+    <hyperlink ref="B16" r:id="rId28" display="https://leetcode.com/problems/guess-the-word" xr:uid="{59FC6739-B8AC-4A1B-ADB0-BD711345B840}"/>
+    <hyperlink ref="C16" r:id="rId29" display="https://leetcode.com/articles/guess-the-word" xr:uid="{879EBF13-F69A-4657-84EB-C7C97DE5052D}"/>
+    <hyperlink ref="B17" r:id="rId30" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{70583F1A-1920-4E7C-B5EF-818EB8335A99}"/>
+    <hyperlink ref="C17" r:id="rId31" display="https://leetcode.com/articles/robot-room-cleaner" xr:uid="{4F60CEB0-9CD7-4F82-907E-7C911443AADA}"/>
+    <hyperlink ref="B18" r:id="rId32" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self" xr:uid="{C921381F-97CC-4511-9798-E4B842D0BA29}"/>
+    <hyperlink ref="B19" r:id="rId33" display="https://leetcode.com/problems/odd-even-jump" xr:uid="{03484EBA-BE6C-40C8-B7A8-95B97B09AFE4}"/>
+    <hyperlink ref="C19" r:id="rId34" display="https://leetcode.com/articles/odd-even-jump" xr:uid="{F84E9532-9AB9-42A0-9073-F5612E0CEB67}"/>
+    <hyperlink ref="B4" r:id="rId35" display="https://leetcode.com/problems/unique-email-addresses" xr:uid="{9659678A-5FA6-4116-8CB6-1D70840B9ED0}"/>
+    <hyperlink ref="C4" r:id="rId36" display="https://leetcode.com/articles/unique-email-addresses" xr:uid="{DCC006D6-2070-446C-BD53-35951D8F4196}"/>
+    <hyperlink ref="B31" r:id="rId37" display="https://leetcode.com/problems/count-complete-tree-nodes" xr:uid="{7CD2B87B-616F-4F1D-BE9B-595D4B295EB7}"/>
+    <hyperlink ref="C31" r:id="rId38" display="https://leetcode.com/articles/count-complete-tree-nodes" xr:uid="{CA40E27C-24D8-43B1-BC38-B32BECB6098F}"/>
+    <hyperlink ref="B32" r:id="rId39" display="https://leetcode.com/problems/evaluate-division" xr:uid="{3DC9F89D-A043-44A2-A69B-523DE9FEA18C}"/>
+    <hyperlink ref="B33" r:id="rId40" display="https://leetcode.com/problems/design-snake-game" xr:uid="{0949E9AE-EF33-4280-925E-7BECBAA7B1A4}"/>
+    <hyperlink ref="B20" r:id="rId41" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{C6FF5216-6417-4A0A-9D61-44A49C73EC16}"/>
+    <hyperlink ref="C20" r:id="rId42" display="https://leetcode.com/articles/cracking-the-safe" xr:uid="{15CC35AD-BAC3-4212-995C-F179ACCA988C}"/>
+    <hyperlink ref="B34" r:id="rId43" display="https://leetcode.com/problems/campus-bikes" xr:uid="{EF6E9028-68A3-464D-A57B-9033340A66B3}"/>
+    <hyperlink ref="B35" r:id="rId44" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{77C47338-C10B-44EA-B00B-BE0B6D221911}"/>
+    <hyperlink ref="C35" r:id="rId45" display="https://leetcode.com/articles/fruit-into-baskets" xr:uid="{478D24B4-0972-422E-921C-57BE6981517C}"/>
+    <hyperlink ref="B36" r:id="rId46" display="https://leetcode.com/problems/increasing-triplet-subsequence" xr:uid="{524C0325-13D8-403B-8BF6-DD68AAF139F1}"/>
+    <hyperlink ref="B5" r:id="rId47" display="https://leetcode.com/problems/logger-rate-limiter" xr:uid="{619B33E6-F84D-465A-A887-78727F4EF4A9}"/>
+    <hyperlink ref="B37" r:id="rId48" display="https://leetcode.com/problems/most-stones-removed-with-same-row-or-column" xr:uid="{25E24F1A-8193-4EAB-98B5-271CB773F33A}"/>
+    <hyperlink ref="C37" r:id="rId49" display="https://leetcode.com/articles/most-stones-removed-with-same-row-or-column" xr:uid="{1F90DF26-1748-46A7-9BE5-90495C5CFF54}"/>
+    <hyperlink ref="B38" r:id="rId50" display="https://leetcode.com/problems/strobogrammatic-number-ii" xr:uid="{D2405682-B2B6-42AA-BFA4-13276370FC15}"/>
+    <hyperlink ref="B39" r:id="rId51" display="https://leetcode.com/problems/different-ways-to-add-parentheses" xr:uid="{10A4D925-B182-4A3B-B992-2EE9EFDDFE07}"/>
+    <hyperlink ref="B40" r:id="rId52" display="https://leetcode.com/problems/network-delay-time" xr:uid="{46A99B1E-B766-4300-A29B-86B88A295B81}"/>
+    <hyperlink ref="C40" r:id="rId53" display="https://leetcode.com/articles/network-delay-time" xr:uid="{34E596DA-1345-43E9-A7F8-0431C29FCBEA}"/>
+    <hyperlink ref="B6" r:id="rId54" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{79DBCFB1-B604-4274-AD84-2B4775881509}"/>
+    <hyperlink ref="C6" r:id="rId55" display="https://leetcode.com/articles/backspace-string-compare" xr:uid="{C7DA1E3F-B916-4DE0-894F-34F1DBFA6C92}"/>
+    <hyperlink ref="B41" r:id="rId56" display="https://leetcode.com/problems/missing-ranges" xr:uid="{B9479734-63A8-4239-A699-A194C7414CC8}"/>
+    <hyperlink ref="B21" r:id="rId57" display="https://leetcode.com/problems/russian-doll-envelopes" xr:uid="{77AE79E5-0E3A-4F21-9F98-652D61752F01}"/>
+    <hyperlink ref="B7" r:id="rId58" display="https://leetcode.com/problems/license-key-formatting" xr:uid="{BFE6E29D-4AFE-4584-8104-18CFD3E65B19}"/>
+    <hyperlink ref="B42" r:id="rId59" display="https://leetcode.com/problems/capacity-to-ship-packages-within-d-days" xr:uid="{FE91C7B4-8A1E-4A00-92EC-3FE0FD17CA35}"/>
+    <hyperlink ref="B22" r:id="rId60" display="https://leetcode.com/problems/brace-expansion-ii" xr:uid="{019305D9-EC58-4FB0-B48B-DEFCA49378C4}"/>
+    <hyperlink ref="B23" r:id="rId61" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{BD7C3A98-3BD3-447A-8808-B6C163503630}"/>
+    <hyperlink ref="C23" r:id="rId62" display="https://leetcode.com/articles/minimum-cost-to-hire-k-workers" xr:uid="{FFA9ABB2-A288-48DE-8296-A3980B1A84C1}"/>
+    <hyperlink ref="B8" r:id="rId63" display="https://leetcode.com/problems/strobogrammatic-number" xr:uid="{7182461C-51F0-4461-9DA2-EFCC231E99E0}"/>
+    <hyperlink ref="B43" r:id="rId64" display="https://leetcode.com/problems/campus-bikes-ii" xr:uid="{11CE855D-7A7A-4E21-9ED4-E1519229EF56}"/>
+    <hyperlink ref="B44" r:id="rId65" display="https://leetcode.com/problems/minimum-area-rectangle" xr:uid="{06136C38-34EF-461D-AEC2-039B0728D08F}"/>
+    <hyperlink ref="C44" r:id="rId66" display="https://leetcode.com/articles/minimum-area-rectangle" xr:uid="{74770153-DD04-420D-ADA0-CF1C6C88AE2E}"/>
+    <hyperlink ref="B45" r:id="rId67" display="https://leetcode.com/problems/my-calendar-ii" xr:uid="{0C8BEFF1-A557-4829-9520-C7FE31BEA2CC}"/>
+    <hyperlink ref="C45" r:id="rId68" display="https://leetcode.com/articles/my-calendar-ii" xr:uid="{53BDB16A-B91B-47D7-9C3E-52021846DA14}"/>
+    <hyperlink ref="B9" r:id="rId69" display="https://leetcode.com/problems/bulls-and-cows" xr:uid="{4CD88399-19B3-4BA4-B665-EFA13EA1E812}"/>
+    <hyperlink ref="B46" r:id="rId70" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{AC101671-C5A3-43B8-9EA7-5054AD6FB6E6}"/>
+    <hyperlink ref="C46" r:id="rId71" display="https://leetcode.com/articles/find-and-replace-in-string" xr:uid="{5D4AE337-26E7-4393-A310-D79C4060A42E}"/>
+    <hyperlink ref="B47" r:id="rId72" display="https://leetcode.com/problems/minimum-domino-rotations-for-equal-row" xr:uid="{9163151B-CDBA-4E47-AD07-6E7D871481FC}"/>
+    <hyperlink ref="C47" r:id="rId73" display="https://leetcode.com/articles/minimum-domino-rotations-for-equal-row" xr:uid="{B7870A44-BB2C-4F1F-B55F-FF3D5F43D20E}"/>
+    <hyperlink ref="B48" r:id="rId74" display="https://leetcode.com/problems/shortest-way-to-form-string" xr:uid="{1A5F326A-1F7A-4EDE-89E9-A9FF63037BF5}"/>
+    <hyperlink ref="B49" r:id="rId75" display="https://leetcode.com/problems/brace-expansion" xr:uid="{B102E92F-1114-4DAD-ADAA-08ED9D270831}"/>
+    <hyperlink ref="B50" r:id="rId76" display="https://leetcode.com/problems/longest-word-in-dictionary-through-deleting" xr:uid="{DE45F942-DA74-4601-AB48-5F0B01B3B881}"/>
+    <hyperlink ref="C50" r:id="rId77" display="https://leetcode.com/articles/longest-word-in-dictionary-through-deletion" xr:uid="{D844D976-7E65-46B3-93FC-26FD0B02A047}"/>
+    <hyperlink ref="B51" r:id="rId78" display="https://leetcode.com/problems/expressive-words" xr:uid="{1EE180D9-F97F-4052-B8BB-5C4F3A990460}"/>
+    <hyperlink ref="C51" r:id="rId79" display="https://leetcode.com/articles/expressive-words" xr:uid="{C8229CFA-4F10-4504-9859-5C2503E3605A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93E056F-F7DF-4840-9120-5A008D01542F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9743,7 +10747,7 @@
       </c>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>15</v>
       </c>
@@ -9759,7 +10763,7 @@
       </c>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>973</v>
       </c>
@@ -9775,7 +10779,7 @@
       </c>
       <c r="F4" s="27"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>23</v>
       </c>
@@ -9791,7 +10795,7 @@
       </c>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>273</v>
       </c>
@@ -9807,7 +10811,7 @@
       </c>
       <c r="F6" s="27"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>56</v>
       </c>
@@ -9823,7 +10827,7 @@
       </c>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>301</v>
       </c>
@@ -9839,7 +10843,7 @@
       </c>
       <c r="F8" s="27"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>253</v>
       </c>
@@ -9855,7 +10859,7 @@
       </c>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>76</v>
       </c>
@@ -9871,7 +10875,7 @@
       </c>
       <c r="F10" s="27"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>238</v>
       </c>
@@ -9887,7 +10891,7 @@
       </c>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>297</v>
       </c>
@@ -9903,7 +10907,7 @@
       </c>
       <c r="F12" s="27"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>560</v>
       </c>
@@ -9919,7 +10923,7 @@
       </c>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -9951,7 +10955,7 @@
       </c>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>31</v>
       </c>
@@ -9967,7 +10971,7 @@
       </c>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>269</v>
       </c>
@@ -9983,7 +10987,7 @@
       </c>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>215</v>
       </c>
@@ -9999,7 +11003,7 @@
       </c>
       <c r="F18" s="27"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>986</v>
       </c>
@@ -10015,7 +11019,7 @@
       </c>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>124</v>
       </c>
@@ -10063,7 +11067,7 @@
       </c>
       <c r="F22" s="27"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>98</v>
       </c>
@@ -10079,7 +11083,7 @@
       </c>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>199</v>
       </c>
@@ -10095,7 +11099,7 @@
       </c>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>340</v>
       </c>
@@ -10111,7 +11115,7 @@
       </c>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>133</v>
       </c>
@@ -10127,7 +11131,7 @@
       </c>
       <c r="F26" s="27"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>621</v>
       </c>
@@ -10143,7 +11147,7 @@
       </c>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>158</v>
       </c>
@@ -10191,7 +11195,7 @@
       </c>
       <c r="F30" s="27"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>314</v>
       </c>
@@ -10223,7 +11227,7 @@
       </c>
       <c r="F32" s="27"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>426</v>
       </c>
@@ -10239,7 +11243,7 @@
       </c>
       <c r="F33" s="28"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>438</v>
       </c>
@@ -10271,7 +11275,7 @@
       </c>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>317</v>
       </c>
@@ -10287,7 +11291,7 @@
       </c>
       <c r="F36" s="27"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>785</v>
       </c>
@@ -10303,7 +11307,7 @@
       </c>
       <c r="F37" s="28"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>173</v>
       </c>
@@ -10319,7 +11323,7 @@
       </c>
       <c r="F38" s="27"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>304</v>
       </c>
@@ -10335,7 +11339,7 @@
       </c>
       <c r="F39" s="28"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>721</v>
       </c>
@@ -10383,7 +11387,7 @@
       </c>
       <c r="F42" s="27"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>211</v>
       </c>
@@ -10399,7 +11403,7 @@
       </c>
       <c r="F43" s="28"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>523</v>
       </c>
@@ -10415,7 +11419,7 @@
       </c>
       <c r="F44" s="27"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>282</v>
       </c>
@@ -10431,7 +11435,7 @@
       </c>
       <c r="F45" s="28"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>161</v>
       </c>
@@ -10447,7 +11451,7 @@
       </c>
       <c r="F46" s="27"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>311</v>
       </c>
@@ -10463,7 +11467,7 @@
       </c>
       <c r="F47" s="28"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>632</v>
       </c>
@@ -10511,31 +11515,38 @@
       </c>
       <c r="F50" s="27"/>
     </row>
-    <row r="51" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="68">
+    <row r="51" spans="1:6" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="74">
         <v>825</v>
       </c>
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="71">
+      <c r="C51" s="80"/>
+      <c r="D51" s="77">
         <v>0.375</v>
       </c>
-      <c r="E51" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="67"/>
+      <c r="E51" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="79"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="74"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="79"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F52" xr:uid="{BCEBD292-7D55-4AD2-B881-0FA099B41122}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Easy"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="A51:A52"/>
@@ -10637,11 +11648,2473 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABCBE6D-FB88-4368-B847-940B2E49D0AA}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="68">
+        <v>28</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="68">
+        <v>38</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>486</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="G3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="68">
+        <v>58</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="69"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="68">
+        <v>67</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="69"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="68">
+        <v>125</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>484</v>
+      </c>
+      <c r="F6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="68">
+        <v>157</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="69"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="68">
+        <v>293</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="69"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="68">
+        <v>345</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="69"/>
+      <c r="G9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="68">
+        <v>383</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="69"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="68">
+        <v>387</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="69"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="68">
+        <v>408</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="69"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="68">
+        <v>415</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="69"/>
+      <c r="G13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="68">
+        <v>434</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="69"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="68">
+        <v>443</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="69"/>
+      <c r="G15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="68">
+        <v>459</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="69"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="68">
+        <v>520</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="69"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="68">
+        <v>521</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="69"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="68">
+        <v>541</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="69"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="68">
+        <v>551</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="69"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="68">
+        <v>606</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="69"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="68">
+        <v>680</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="69"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="68">
+        <v>686</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="69"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="68">
+        <v>696</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="69"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="68">
+        <v>758</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="69"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="68">
+        <v>788</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="69"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="68">
+        <v>800</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="69"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="68">
+        <v>859</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="69"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="68">
+        <v>893</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="69"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="68">
+        <v>925</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="69"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="68">
+        <v>937</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="69"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="68">
+        <v>1065</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="69"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="68">
+        <v>1071</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="69"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="68">
+        <v>1119</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="69"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="68">
+        <v>1165</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="69"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="68">
+        <v>1180</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://leetcode.com/problems/count-and-say" xr:uid="{B94153E9-887C-4C16-B9B8-FCEEB4B4CA2B}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://leetcode.com/problems/length-of-last-word" xr:uid="{221AE709-0751-447A-91D6-50EBFAE6D1D6}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://leetcode.com/problems/add-binary" xr:uid="{1F464472-0FFE-4A7F-BC92-66B06942FFBD}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://leetcode.com/articles/add-binary" xr:uid="{26E97B40-8885-40FD-A6A0-771820AC02FD}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://leetcode.com/problems/valid-palindrome" xr:uid="{78AB3672-B63C-448C-BD4C-C7FC43D52615}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://leetcode.com/problems/read-n-characters-given-read4" xr:uid="{F3E0D5AB-B3EA-42A7-81FB-948B18A3F6A9}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://leetcode.com/problems/flip-game" xr:uid="{6825E606-7230-4F49-94A0-C273FEE491ED}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://leetcode.com/problems/reverse-vowels-of-a-string" xr:uid="{79BB9CB9-13A0-47CB-9F53-5DD722029D85}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://leetcode.com/problems/ransom-note" xr:uid="{BA7514CB-C515-4476-AFC1-82881A00A3AD}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{9E74E07F-6C40-4206-B7F1-BE4FF085E109}"/>
+    <hyperlink ref="C11" r:id="rId11" display="https://leetcode.com/articles/first-unique-character-in-a-string" xr:uid="{3D77C906-D771-4E50-87CE-DE576E9D4FCE}"/>
+    <hyperlink ref="B12" r:id="rId12" display="https://leetcode.com/problems/valid-word-abbreviation" xr:uid="{F8997429-1BD9-4EF1-B7D2-BFBA45836C1C}"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://leetcode.com/problems/add-strings" xr:uid="{304DA142-49A0-4B3D-A154-03282261944B}"/>
+    <hyperlink ref="B14" r:id="rId14" display="https://leetcode.com/problems/number-of-segments-in-a-string" xr:uid="{6A99DCC3-EF93-4552-909B-B32496D17D1D}"/>
+    <hyperlink ref="C14" r:id="rId15" display="https://leetcode.com/articles/number-of-segments-in-a-string" xr:uid="{CD260C36-A0DA-45AB-816D-824D64D273C4}"/>
+    <hyperlink ref="B15" r:id="rId16" display="https://leetcode.com/problems/string-compression" xr:uid="{A00614E9-810B-4D68-875C-77E014F13E40}"/>
+    <hyperlink ref="C15" r:id="rId17" display="https://leetcode.com/articles/string-compression" xr:uid="{CEC3CBAC-A776-4229-BCD5-42251E7C9288}"/>
+    <hyperlink ref="B16" r:id="rId18" display="https://leetcode.com/problems/repeated-substring-pattern" xr:uid="{CD7DF8BF-599C-4E55-B920-B1A065E084B0}"/>
+    <hyperlink ref="B17" r:id="rId19" display="https://leetcode.com/problems/detect-capital" xr:uid="{84A47732-D684-4D94-9CFE-33BE37062BA0}"/>
+    <hyperlink ref="B18" r:id="rId20" display="https://leetcode.com/problems/longest-uncommon-subsequence-i" xr:uid="{2B67E126-8B66-446A-B89A-72D297A9368E}"/>
+    <hyperlink ref="C18" r:id="rId21" display="https://leetcode.com/articles/longest-uncommon-subsequence-i" xr:uid="{EC068A03-94BA-4A73-BBEA-7A652D510C8C}"/>
+    <hyperlink ref="B19" r:id="rId22" display="https://leetcode.com/problems/reverse-string-ii" xr:uid="{0F8CA1C0-37BE-474B-B516-F43E8DF76373}"/>
+    <hyperlink ref="C19" r:id="rId23" display="https://leetcode.com/articles/reverse-string-ii" xr:uid="{DBE880FD-70F8-453D-93CB-07146BD23FFB}"/>
+    <hyperlink ref="B20" r:id="rId24" display="https://leetcode.com/problems/student-attendance-record-i" xr:uid="{8BE50157-29B1-4342-92F0-E2D4BC1910F4}"/>
+    <hyperlink ref="C20" r:id="rId25" display="https://leetcode.com/articles/student-attendance-record-i" xr:uid="{861FFDA7-F602-4864-B9BF-0B876746F8E6}"/>
+    <hyperlink ref="B21" r:id="rId26" display="https://leetcode.com/problems/construct-string-from-binary-tree" xr:uid="{DA7358BC-4DB2-43F9-A430-6438DF625EA5}"/>
+    <hyperlink ref="C21" r:id="rId27" display="https://leetcode.com/articles/construct-string-from-binary-tree" xr:uid="{C72AB5A3-C71B-413C-ABE9-27E97817E3F8}"/>
+    <hyperlink ref="B22" r:id="rId28" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{B0A2D101-25D1-44F6-A222-0681B538E658}"/>
+    <hyperlink ref="C22" r:id="rId29" display="https://leetcode.com/articles/valid-palindrome-ii" xr:uid="{B4BFB4DF-429F-4A61-8B9F-B77258E6F720}"/>
+    <hyperlink ref="B23" r:id="rId30" display="https://leetcode.com/problems/repeated-string-match" xr:uid="{97075807-81EC-4D27-8DA0-7AF6D3BA8442}"/>
+    <hyperlink ref="C23" r:id="rId31" display="https://leetcode.com/articles/repeated-string-match" xr:uid="{FE4F1D3D-72F7-4D33-AEF8-DA2F45CDF993}"/>
+    <hyperlink ref="B24" r:id="rId32" display="https://leetcode.com/problems/count-binary-substrings" xr:uid="{4FDA5F18-7339-4DD9-A865-118559A1A49D}"/>
+    <hyperlink ref="C24" r:id="rId33" display="https://leetcode.com/articles/count-binary-substrings" xr:uid="{A29D2F5E-88C5-48E7-A944-B93ED277ACC1}"/>
+    <hyperlink ref="B25" r:id="rId34" display="https://leetcode.com/problems/bold-words-in-string" xr:uid="{C5002151-51EE-4C4D-907E-755C0B69385A}"/>
+    <hyperlink ref="C25" r:id="rId35" display="https://leetcode.com/articles/bold-words-in-string" xr:uid="{BBF1685E-7A08-4C53-AC6C-9565729835F5}"/>
+    <hyperlink ref="B26" r:id="rId36" display="https://leetcode.com/problems/rotated-digits" xr:uid="{AF330081-8638-4752-9684-94BB25EA4461}"/>
+    <hyperlink ref="C26" r:id="rId37" display="https://leetcode.com/articles/rotated-digits" xr:uid="{DAB298C5-413F-4CB4-8BE6-524F1483F0DE}"/>
+    <hyperlink ref="B27" r:id="rId38" display="https://leetcode.com/problems/similar-rgb-color" xr:uid="{C020A428-507A-4A1E-9A01-290043AB0748}"/>
+    <hyperlink ref="C27" r:id="rId39" display="https://leetcode.com/articles/similar-rgb-color" xr:uid="{7FE51A9C-3F04-4B82-AA99-3846791D6D43}"/>
+    <hyperlink ref="B28" r:id="rId40" display="https://leetcode.com/problems/buddy-strings" xr:uid="{03D362DD-3032-4698-9341-68206395E440}"/>
+    <hyperlink ref="C28" r:id="rId41" display="https://leetcode.com/articles/buddy-strings" xr:uid="{06CC7E03-266E-4C45-9448-5D2B1C533775}"/>
+    <hyperlink ref="B29" r:id="rId42" display="https://leetcode.com/problems/groups-of-special-equivalent-strings" xr:uid="{F993599E-F3D2-4FF9-BC48-FD7100D6DA65}"/>
+    <hyperlink ref="C29" r:id="rId43" display="https://leetcode.com/articles/groups-of-special-equivalent-strings" xr:uid="{0E955632-8E0C-4920-A3F0-30F83676634F}"/>
+    <hyperlink ref="B30" r:id="rId44" display="https://leetcode.com/problems/long-pressed-name" xr:uid="{EB280085-3A3A-4261-B4ED-DE0962F1AEF5}"/>
+    <hyperlink ref="C30" r:id="rId45" display="https://leetcode.com/articles/long-pressed-name" xr:uid="{0B25FB9C-536A-4080-B477-3F68F1023C91}"/>
+    <hyperlink ref="B31" r:id="rId46" display="https://leetcode.com/problems/reorder-data-in-log-files" xr:uid="{85A7EA6B-9A4E-46D7-A7BD-8129E060DE1E}"/>
+    <hyperlink ref="C31" r:id="rId47" display="https://leetcode.com/articles/reorder-log-files" xr:uid="{40AF7CA8-AD02-4156-9458-910C75E07A0D}"/>
+    <hyperlink ref="B32" r:id="rId48" display="https://leetcode.com/problems/index-pairs-of-a-string" xr:uid="{EC7758B7-07DB-4273-A85A-85B1AB2D4EB5}"/>
+    <hyperlink ref="B33" r:id="rId49" display="https://leetcode.com/problems/greatest-common-divisor-of-strings" xr:uid="{A1553E61-1BB1-428F-9314-5998CEB9FB05}"/>
+    <hyperlink ref="B34" r:id="rId50" display="https://leetcode.com/problems/remove-vowels-from-a-string" xr:uid="{AF30C98E-69F0-4DA0-A72C-0720814574FF}"/>
+    <hyperlink ref="B35" r:id="rId51" display="https://leetcode.com/problems/single-row-keyboard" xr:uid="{851EA36F-12AC-44BE-B282-BDA24CDD1600}"/>
+    <hyperlink ref="B36" r:id="rId52" display="https://leetcode.com/problems/count-substrings-with-only-one-distinct-letter" xr:uid="{E01C333C-03F8-48F8-B669-3E78550B023D}"/>
+    <hyperlink ref="B2" r:id="rId53" display="https://leetcode.com/problems/implement-strstr" xr:uid="{81FA1659-6490-479A-9BDD-901FBB417F1E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B544AEF2-9B26-4431-ABD8-D4B18E22E6B6}">
+  <dimension ref="A1:L84"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>492</v>
+      </c>
+      <c r="L2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
+        <v>493</v>
+      </c>
+      <c r="L3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="L4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>496</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>497</v>
+      </c>
+      <c r="L7" s="71" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>498</v>
+      </c>
+      <c r="L8" s="71" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>499</v>
+      </c>
+      <c r="L9" s="71" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
+        <v>501</v>
+      </c>
+      <c r="L11" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
+        <v>503</v>
+      </c>
+      <c r="L13" s="71" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
+        <v>504</v>
+      </c>
+      <c r="L14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="70" t="s">
+        <v>505</v>
+      </c>
+      <c r="L15" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="70" t="s">
+        <v>506</v>
+      </c>
+      <c r="L16" s="72"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
+        <v>507</v>
+      </c>
+      <c r="L17" s="72" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>508</v>
+      </c>
+      <c r="L18" s="72" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
+        <v>509</v>
+      </c>
+      <c r="L19" s="72" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
+        <v>511</v>
+      </c>
+      <c r="L21" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
+        <v>512</v>
+      </c>
+      <c r="L22" s="72"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="72" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="72" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="72" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
+        <v>514</v>
+      </c>
+      <c r="L27" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="70" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="70" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="70" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="70" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="70" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="70" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="70" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="70" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="70" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="70" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="70" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="70" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="70" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="70" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="70" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="70" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="70" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="70" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="70" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="70" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="70" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="70" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="70" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="70" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="70" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="70" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="70" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="70" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="70" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="70" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="70" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="70" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="70" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="70" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="70" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="70" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="70" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="70" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="70" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="70" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="70" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="70" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="70" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="70" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="70" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="70" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="70" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="70" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="70" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="70" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="70" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="70" t="s">
+        <v>570</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://leetcode.com/discuss/interview-question/365872/" xr:uid="{770328C7-6D13-4129-9E2B-6E7613E6E122}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://leetcode.com/discuss/interview-question/398026/" xr:uid="{876B3575-EE65-4CE3-B40B-8564046CAC35}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://leetcode.com/discuss/interview-question/364760/" xr:uid="{CCB9CA82-48CD-4F65-AD67-E0E96F221731}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://leetcode.com/discuss/interview-question/351783/" xr:uid="{FFD86433-990E-4A9F-85F7-E3C539D4F698}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://leetcode.com/discuss/interview-question/398031/" xr:uid="{F5B36C9F-D80A-4830-9094-6C90109DF51A}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://leetcode.com/discuss/interview-question/366869/" xr:uid="{73B17C20-2F11-4E5C-9264-181CA303A52A}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://leetcode.com/discuss/interview-question/398035/" xr:uid="{0B903A8A-B692-4FE2-AE69-3020C74DD10B}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://leetcode.com/discuss/interview-question/398039/" xr:uid="{4EFB2311-4C02-4D91-A93F-9BC8D94472AE}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://leetcode.com/discuss/interview-question/398037/" xr:uid="{3F025070-C262-44AD-9B29-68FF46EA74D3}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://leetcode.com/discuss/interview-question/364618/" xr:uid="{A18B1A47-46FF-4A12-A983-63BDF08FAE8E}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://leetcode.com/discuss/interview-question/398047/" xr:uid="{25426D6F-C119-4E8B-B54B-42BFABB2589A}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://leetcode.com/discuss/interview-question/398050/" xr:uid="{1290CDF4-CCCD-47EE-8BA2-4132847A2A62}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://leetcode.com/discuss/interview-question/398056/" xr:uid="{351A37A3-7436-4B89-8FA2-1A43169BD70C}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://leetcode.com/discuss/interview-question/401826/" xr:uid="{C3969F71-58DB-40C5-A184-FFB87FA73D2D}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://leetcode.com/discuss/interview-question/406031/" xr:uid="{177D6A15-4D63-4B23-9AFA-25F695A2A32F}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://leetcode.com/discuss/interview-question/414660/" xr:uid="{8EB881B7-48E5-4F69-A57E-72FD0E33B36D}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://leetcode.com/problems/maximum-length-of-a-concatenated-string-with-unique-characters/" xr:uid="{25D92BE0-2D7E-45B1-9353-3E302FE002CC}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://leetcode.com/discuss/interview-question/414880/" xr:uid="{DDCF3C0D-60B0-47A8-AD07-E85AE78EAA7F}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://leetcode.com/discuss/interview-question/421975/" xr:uid="{4606005A-F9C2-435C-93EB-3782352C35BC}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://leetcode.com/discuss/interview-question/428272/" xr:uid="{0941FD59-CDEA-4A81-ABE3-692FAC0B5435}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://leetcode.com/discuss/interview-question/430981/" xr:uid="{B912302F-4353-40A6-946F-920A7D8341AD}"/>
+    <hyperlink ref="A27" r:id="rId22" display="https://leetcode.com/discuss/interview-question/352458/" xr:uid="{2F66C84A-DCC8-44C0-8A0C-471173541A86}"/>
+    <hyperlink ref="A28" r:id="rId23" display="https://leetcode.com/discuss/interview-question/352459/" xr:uid="{071C7E09-8348-4B68-A909-A6CABBC23D5E}"/>
+    <hyperlink ref="A29" r:id="rId24" display="https://leetcode.com/discuss/interview-question/396769/" xr:uid="{BEA86D8E-0F52-49E7-844D-9DF02C5D1A3B}"/>
+    <hyperlink ref="A30" r:id="rId25" display="https://leetcode.com/discuss/interview-question/421787/" xr:uid="{EFA35E93-391E-44AE-8748-BDBC7700EDD9}"/>
+    <hyperlink ref="A31" r:id="rId26" display="https://leetcode.com/discuss/interview-question/394347/" xr:uid="{D338FCFB-F52A-4E08-8CD9-A52EB91CBFE7}"/>
+    <hyperlink ref="A32" r:id="rId27" display="https://leetcode.com/problems/minimum-domino-rotations-for-equal-row" xr:uid="{A4630493-D8A6-4015-80F1-F3922401877B}"/>
+    <hyperlink ref="A33" r:id="rId28" display="https://leetcode.com/discuss/interview-question/356477" xr:uid="{E406AD3D-0E4B-456D-98C6-772B21925F42}"/>
+    <hyperlink ref="A34" r:id="rId29" display="https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree" xr:uid="{B957D0CB-DD97-44B4-AC89-821905F9E109}"/>
+    <hyperlink ref="A35" r:id="rId30" display="https://leetcode.com/discuss/interview-question/356520" xr:uid="{39F95B38-77A5-4981-A0F3-D96BE559075C}"/>
+    <hyperlink ref="A36" r:id="rId31" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{4FF2891E-632E-4D92-9DF2-A7B5067FBD64}"/>
+    <hyperlink ref="A37" r:id="rId32" display="https://leetcode.com/problems/odd-even-jump" xr:uid="{5109E5FA-7461-4FAE-8EC4-F827A2B67E3D}"/>
+    <hyperlink ref="A38" r:id="rId33" display="https://leetcode.com/problems/license-key-formatting" xr:uid="{C8365DCF-4D1C-412F-96FA-416AF8B6601D}"/>
+    <hyperlink ref="A39" r:id="rId34" display="https://leetcode.com/problems/unique-email-addresses" xr:uid="{ADE89D90-C8C3-4258-A6A0-E422F4490244}"/>
+    <hyperlink ref="A40" r:id="rId35" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{EBFF31B0-FF68-4D3B-9D98-A2EBA0EE8BCB}"/>
+    <hyperlink ref="A41" r:id="rId36" display="https://leetcode.com/discuss/interview-question/334191" xr:uid="{8145D059-EBE6-42E7-BD1B-284A6923D51C}"/>
+    <hyperlink ref="A42" r:id="rId37" display="https://leetcode.com/discuss/interview-question/341295/Google-or-Online-Assessment-2019-or-Fill-Matrix" xr:uid="{0C93FE29-9136-4DC3-A37B-F78D35CA08EA}"/>
+    <hyperlink ref="A43" r:id="rId38" display="https://leetcode.com/discuss/interview-question/350233/Google-or-Summer-Intern-OA-2019-or-Decreasing-Subsequences" xr:uid="{FAE37FDC-282F-40C2-A0B8-3443BA1347C6}"/>
+    <hyperlink ref="A44" r:id="rId39" display="https://leetcode.com/discuss/interview-question/350363/Google-or-OA-2018-or-Max-Distance" xr:uid="{8255304B-3F1B-49DC-BFCA-AB3D987EE85D}"/>
+    <hyperlink ref="A45" r:id="rId40" display="https://leetcode.com/discuss/interview-question/350248/Google-or-Summer-Intern-OA-2019-or-Stores-and-Houses" xr:uid="{BD75AB7B-43BA-4A92-B980-EF3362098C1E}"/>
+    <hyperlink ref="A49" r:id="rId41" display="https://leetcode.com/discuss/interview-question/415729/" xr:uid="{5DA869A3-628F-4401-9763-B329361BAEDD}"/>
+    <hyperlink ref="A50" r:id="rId42" display="https://leetcode.com/discuss/interview-question/411357/" xr:uid="{58480941-0D3A-4E43-8CFC-FEB3CCBB50B0}"/>
+    <hyperlink ref="A51" r:id="rId43" display="https://leetcode.com/discuss/interview-question/436073/" xr:uid="{28317898-4555-4652-83D3-D1DE9E91162F}"/>
+    <hyperlink ref="A52" r:id="rId44" display="https://leetcode.com/discuss/interview-question/414085/" xr:uid="{A13170A6-6677-4D41-9EF1-4A2B7801DA69}"/>
+    <hyperlink ref="A53" r:id="rId45" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{D7B1E120-DDE9-48A2-B95C-1B4101D0F55A}"/>
+    <hyperlink ref="A54" r:id="rId46" display="https://leetcode.com/problems/reorder-data-in-log-files" xr:uid="{638503A2-4E11-453C-A1B8-413BE6E0A447}"/>
+    <hyperlink ref="A55" r:id="rId47" display="https://leetcode.com/discuss/interview-question/373202" xr:uid="{9E4ED72D-1C19-4D18-9918-731CFA163B30}"/>
+    <hyperlink ref="A56" r:id="rId48" display="https://leetcode.com/discuss/interview-question/344677" xr:uid="{06EC1D23-64D8-477B-A8EF-3C29D7E9FA24}"/>
+    <hyperlink ref="A57" r:id="rId49" display="https://leetcode.com/discuss/interview-question/347457" xr:uid="{51578B74-907F-4AC2-8DD3-81AF6ADE6A4A}"/>
+    <hyperlink ref="A58" r:id="rId50" display="https://leetcode.com/discuss/interview-question/356150" xr:uid="{EAF6DB86-3BBC-486E-AE48-9B80194DDCEF}"/>
+    <hyperlink ref="A59" r:id="rId51" display="https://leetcode.com/discuss/interview-question/356960" xr:uid="{9136C419-A460-4CFE-86FD-F6F885F4B321}"/>
+    <hyperlink ref="A60" r:id="rId52" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{B88917EF-7109-4190-8DAE-52AB7E1E069F}"/>
+    <hyperlink ref="A61" r:id="rId53" display="https://leetcode.com/problems/merge-two-sorted-lists" xr:uid="{43A9C5AB-7DCB-441C-A74F-AE7741E9E194}"/>
+    <hyperlink ref="A62" r:id="rId54" display="https://leetcode.com/problems/subtree-of-another-tree" xr:uid="{08BB7BDE-3CE4-4F3E-BE6B-42F541DE1A51}"/>
+    <hyperlink ref="A63" r:id="rId55" display="https://leetcode.com/problems/search-a-2d-matrix-ii" xr:uid="{81AACAF8-2D68-48FD-93CC-CE6D77AF5B5E}"/>
+    <hyperlink ref="A64" r:id="rId56" display="https://leetcode.com/discuss/interview-question/372581" xr:uid="{AF9CB6A0-64B8-4544-AB50-1BD3CA6BF1AC}"/>
+    <hyperlink ref="A65" r:id="rId57" display="https://leetcode.com/discuss/interview-question/373006" xr:uid="{8C3B6068-A7B1-4811-950E-0AF68B144124}"/>
+    <hyperlink ref="A66" r:id="rId58" display="https://leetcode.com/discuss/interview-question/372434" xr:uid="{9D6887F7-F28F-4EC2-B046-9B5E1C396DDA}"/>
+    <hyperlink ref="A67" r:id="rId59" display="https://leetcode.com/problems/spiral-matrix-ii/" xr:uid="{0E0B2253-C508-4943-97A2-1663B382A540}"/>
+    <hyperlink ref="A68" r:id="rId60" display="https://leetcode.com/discuss/interview-question/370157" xr:uid="{0ECF467E-D778-488E-9E51-A07AD6328043}"/>
+    <hyperlink ref="A69" r:id="rId61" display="https://leetcode.com/discuss/interview-question/383669/" xr:uid="{40D55E52-1AD3-4440-B9C2-6E736CEB92FF}"/>
+    <hyperlink ref="A70" r:id="rId62" display="https://leetcode.com/problems/longest-palindromic-substring" xr:uid="{844B722D-F69A-420E-93C9-DEE21568032A}"/>
+    <hyperlink ref="A71" r:id="rId63" display="https://leetcode.com/discuss/interview-question/370112" xr:uid="{CCB44993-F50A-41DD-A74F-2C6A3C46661B}"/>
+    <hyperlink ref="A72" r:id="rId64" display="https://leetcode.com/problems/most-common-word" xr:uid="{133C73A4-731C-48E8-9874-7B4BD804A902}"/>
+    <hyperlink ref="A73" r:id="rId65" display="https://leetcode.com/discuss/interview-question/376375" xr:uid="{50C748A9-9FDC-421F-B488-FC042A63039A}"/>
+    <hyperlink ref="A74" r:id="rId66" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{211BE153-88EB-4F64-80F4-E3B635E6B40B}"/>
+    <hyperlink ref="A75" r:id="rId67" display="https://leetcode.com/discuss/interview-question/356981" xr:uid="{90114931-E9FE-4B39-A6ED-CDF52848A81D}"/>
+    <hyperlink ref="A76" r:id="rId68" display="https://leetcode.com/discuss/interview-question/357310" xr:uid="{5941D729-9A0C-4BFE-A5D0-B5B20B755362}"/>
+    <hyperlink ref="A77" r:id="rId69" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{DF826DCC-D688-4183-94B5-C81788B5746E}"/>
+    <hyperlink ref="A78" r:id="rId70" display="https://leetcode.com/problems/partition-labels" xr:uid="{4028D39C-9626-4995-AE86-487920D2DA01}"/>
+    <hyperlink ref="A79" r:id="rId71" display="https://leetcode.com/discuss/interview-question/349617" xr:uid="{766518C1-E566-4128-BA7B-EC50485DBB85}"/>
+    <hyperlink ref="A80" r:id="rId72" display="https://leetcode.com/discuss/interview-question/396418/" xr:uid="{86F11852-CD26-4D0D-BD65-9A2019A0E3F1}"/>
+    <hyperlink ref="A81" r:id="rId73" display="https://leetcode.com/problems/merge-intervals/" xr:uid="{9D440901-4E5A-4B19-9696-6256CA978E66}"/>
+    <hyperlink ref="A82" r:id="rId74" display="https://leetcode.com/discuss/interview-question/331158" xr:uid="{24060F01-E724-4BB1-8B4B-7F422E105091}"/>
+    <hyperlink ref="A83" r:id="rId75" display="https://leetcode.com/discuss/interview-question/330356" xr:uid="{DE5FAE3D-5488-4E4D-B698-483E8D721422}"/>
+    <hyperlink ref="A84" r:id="rId76" display="https://leetcode.com/discuss/interview-question/233724" xr:uid="{5F405A95-AEC6-4747-A84F-C80D9F78D4A7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5095E204-4200-4C9E-ACAE-89300FE8339E}">
+  <dimension ref="A1:A257"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A257"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="81" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="81" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="81" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="81" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="81" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="81" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="81" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="81" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="81" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="81" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="81" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="81" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="81" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="81" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="72"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="70" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="81" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="81" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="81" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="81" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="81" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="72"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="70" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="81" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="72"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="70" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="81" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="81" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="81" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="81" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="81" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="81" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="72"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="70" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="81" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="81" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="81" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="72"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="70" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="81" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="81" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="81" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="81" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="81" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="81" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="81" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="81" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="72"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="70" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="81" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="81" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="81" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="81" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="81" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="72"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="70" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="81" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="81" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="81" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="72"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="70" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="81" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="81" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="81" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="81" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="72"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="70" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="81" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="81" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="81" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="81" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="81" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="81" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="81" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="81" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="72"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="70" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="81" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="81" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="81" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="72"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="70" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="81" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="81" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="81" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="81" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="81" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="81" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="81" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="81" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="81" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="81" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="81" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="81" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="72"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="70" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="81" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="81" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="81" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="72"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="70" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="81" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="81" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="81" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="81" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="72"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="70" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="81" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="81" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="81" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="81" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="81" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="81" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="72"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="70" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="72"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="70" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>707</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" display="https://www.educative.io/courses/grokking-the-coding-interview/Bn2KLlOR0lQ/preview" xr:uid="{CE4D9361-2DF2-40E2-9062-8CFC263DC895}"/>
+    <hyperlink ref="A13" r:id="rId2" display="https://www.educative.io/courses/grokking-the-coding-interview/YMzBx1gE5EO/preview" xr:uid="{7C25C621-B0AD-4482-80ED-56DF3C34B036}"/>
+    <hyperlink ref="A14" r:id="rId3" display="https://www.educative.io/courses/grokking-the-coding-interview/R8DVgjq78yR/preview" xr:uid="{F16A4651-B278-435C-B180-BFB6C5C5349E}"/>
+    <hyperlink ref="A15" r:id="rId4" display="https://www.educative.io/courses/grokking-the-coding-interview/B6VypRxPolJ/preview" xr:uid="{6463CA9A-BEC4-4D19-97E3-39930FDE6047}"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://www.educative.io/courses/grokking-the-coding-interview/N8vB7OVYo2D/preview" xr:uid="{2FB37B79-6CA4-47DE-92FA-A74B49FE704A}"/>
+    <hyperlink ref="A17" r:id="rId6" display="https://www.educative.io/courses/grokking-the-coding-interview/N0o9QnPLKNv/preview" xr:uid="{79428704-0861-4DDB-A974-15C9A1F0C4FC}"/>
+    <hyperlink ref="A18" r:id="rId7" display="https://www.educative.io/courses/grokking-the-coding-interview/YQ8N2OZq0VM/preview" xr:uid="{8AFC3F50-0C3B-4225-A961-17F9524376ED}"/>
+    <hyperlink ref="A19" r:id="rId8" display="https://www.educative.io/courses/grokking-the-coding-interview/xl2g3vxrMq3/preview" xr:uid="{E518B7B3-6D80-4AF8-AA02-4AD903393296}"/>
+    <hyperlink ref="A20" r:id="rId9" display="https://www.educative.io/courses/grokking-the-coding-interview/3wDJAYG2pAR/preview" xr:uid="{906E6E65-9E68-4276-A8F2-0CE788C75C6A}"/>
+    <hyperlink ref="A21" r:id="rId10" display="https://www.educative.io/courses/grokking-the-coding-interview/xoyL4q6ApNE/preview" xr:uid="{6AD2E62B-F859-4F3A-9228-E5CA6366E726}"/>
+    <hyperlink ref="A22" r:id="rId11" display="https://www.educative.io/courses/grokking-the-coding-interview/Y5YDWzqPn7O/preview" xr:uid="{C8856547-473F-4B01-8B7A-EE36298BE78C}"/>
+    <hyperlink ref="A24" r:id="rId12" display="https://www.educative.io/courses/grokking-the-coding-interview/N8nMBvDQJ0m/preview" xr:uid="{7D18D5FD-EA48-4B9F-853F-A57790A47557}"/>
+    <hyperlink ref="A28" r:id="rId13" display="https://www.educative.io/courses/grokking-the-coding-interview/xlK78P3Xl7E/preview" xr:uid="{CE04E4B2-5622-4ECF-90BD-00053490B169}"/>
+    <hyperlink ref="A29" r:id="rId14" display="https://www.educative.io/courses/grokking-the-coding-interview/xog6q15W9GP/preview" xr:uid="{C5E2E12E-CC8A-451B-96D7-31B536456958}"/>
+    <hyperlink ref="A30" r:id="rId15" display="https://www.educative.io/courses/grokking-the-coding-interview/mEEA22L5mNA/preview" xr:uid="{5A0C3463-5535-4B0D-85D5-245D2F9B8E13}"/>
+    <hyperlink ref="A31" r:id="rId16" display="https://www.educative.io/courses/grokking-the-coding-interview/R1ppNG3nV9R/preview" xr:uid="{70F51B9E-D99E-48A9-8C25-4BC21E6DCB8D}"/>
+    <hyperlink ref="A32" r:id="rId17" display="https://www.educative.io/courses/grokking-the-coding-interview/gxk639mrr5r/preview" xr:uid="{3FFA0EE1-7D0C-404B-B577-DED45E0782E1}"/>
+    <hyperlink ref="A33" r:id="rId18" display="https://www.educative.io/courses/grokking-the-coding-interview/3YlQz7PE7OA/preview" xr:uid="{CA7DBC63-4C9D-4806-98D9-5217293F9D51}"/>
+    <hyperlink ref="A34" r:id="rId19" display="https://www.educative.io/courses/grokking-the-coding-interview/mElknO5OKBO/preview" xr:uid="{B03BB9BB-6349-4BD1-A3B9-922D3D6A7116}"/>
+    <hyperlink ref="A35" r:id="rId20" display="https://www.educative.io/courses/grokking-the-coding-interview/RMV1GV1yPYz/preview" xr:uid="{AC3BA6C6-AD81-48AA-857A-AE0D2677DC91}"/>
+    <hyperlink ref="A36" r:id="rId21" display="https://www.educative.io/courses/grokking-the-coding-interview/RMBxV6jz6Q0/preview" xr:uid="{E9C6B863-007F-44C8-AA4F-00D1EEAC688E}"/>
+    <hyperlink ref="A37" r:id="rId22" display="https://www.educative.io/courses/grokking-the-coding-interview/gxDOJJ7xAJl/preview" xr:uid="{559F6D00-C080-42FF-8BCD-76E8D45BA7A7}"/>
+    <hyperlink ref="A38" r:id="rId23" display="https://www.educative.io/courses/grokking-the-coding-interview/B6XOq8KlkWo/preview" xr:uid="{348AF0D6-8DB3-44E8-97E3-F8ABBC8910D8}"/>
+    <hyperlink ref="A39" r:id="rId24" display="https://www.educative.io/courses/grokking-the-coding-interview/g7pBzR12YPl/preview" xr:uid="{80253DC6-EC36-4235-B7D3-5E403F4CE64D}"/>
+    <hyperlink ref="A40" r:id="rId25" display="https://www.educative.io/courses/grokking-the-coding-interview/xVKE8MJDlzq/preview" xr:uid="{AD648CB4-7DE9-4DD9-8471-14F56E65B56A}"/>
+    <hyperlink ref="A41" r:id="rId26" display="https://www.educative.io/courses/grokking-the-coding-interview/N8rOAP6Lmw6/preview" xr:uid="{22558599-493D-4A25-BEA6-4EEFA2AB825D}"/>
+    <hyperlink ref="A43" r:id="rId27" display="https://www.educative.io/courses/grokking-the-coding-interview/gxL951y9xj3/preview" xr:uid="{355721A6-2937-44F7-9AB7-0305A6185449}"/>
+    <hyperlink ref="A47" r:id="rId28" display="https://www.educative.io/courses/grokking-the-coding-interview/g76PJVmL5PZ/preview" xr:uid="{545C9718-8523-4522-9062-A62592171407}"/>
+    <hyperlink ref="A48" r:id="rId29" display="https://www.educative.io/courses/grokking-the-coding-interview/N7rwVyAZl6D/preview" xr:uid="{C5BDE5D5-A32D-47C0-BDE5-A2DA743EFA4F}"/>
+    <hyperlink ref="A49" r:id="rId30" display="https://www.educative.io/courses/grokking-the-coding-interview/N7pvEn86YrN/preview" xr:uid="{4104F1A5-A894-49DF-A336-E8E1CA20E5E6}"/>
+    <hyperlink ref="A50" r:id="rId31" display="https://www.educative.io/courses/grokking-the-coding-interview/39q3ZWq27jM/preview" xr:uid="{DDC6E376-616F-403D-AEC5-E0BB25E2179D}"/>
+    <hyperlink ref="A51" r:id="rId32" display="https://www.educative.io/courses/grokking-the-coding-interview/3j5GD3EQMGM/preview" xr:uid="{C07B76C9-2492-4DBE-BB0D-8B4EA4F4B48C}"/>
+    <hyperlink ref="A52" r:id="rId33" display="https://www.educative.io/courses/grokking-the-coding-interview/B1PzmqOKDLQ/preview" xr:uid="{913EFC08-2B34-40A3-BC71-A768ABA3EBEB}"/>
+    <hyperlink ref="A53" r:id="rId34" display="https://www.educative.io/courses/grokking-the-coding-interview/JERG3q0p912/preview" xr:uid="{9E9EA335-8300-4058-A2FE-A1F19508E9F0}"/>
+    <hyperlink ref="A54" r:id="rId35" display="https://www.educative.io/courses/grokking-the-coding-interview/YQJ4mr7yOrW/preview" xr:uid="{140109B3-D9C8-46A5-955B-04EB5E88D51A}"/>
+    <hyperlink ref="A55" r:id="rId36" display="https://www.educative.io/courses/grokking-the-coding-interview/qAo438WozV7/preview" xr:uid="{2A6136E8-2477-42E9-B49A-9456B57D1E23}"/>
+    <hyperlink ref="A56" r:id="rId37" display="https://www.educative.io/courses/grokking-the-coding-interview/3jY0GKpPDxr/preview" xr:uid="{FFB32B59-EC3C-405C-958B-62BD925BF04F}"/>
+    <hyperlink ref="A58" r:id="rId38" display="https://www.educative.io/courses/grokking-the-coding-interview/NE67J9YMj3m/preview" xr:uid="{7E680475-594B-4403-8E57-33B929F107A4}"/>
+    <hyperlink ref="A66" r:id="rId39" display="https://www.educative.io/courses/grokking-the-coding-interview/qVV79nGVgAG/preview" xr:uid="{AB554009-F63C-4009-AF2C-9ECCDCAC9098}"/>
+    <hyperlink ref="A67" r:id="rId40" display="https://www.educative.io/courses/grokking-the-coding-interview/xVoBRZz7RwP/preview" xr:uid="{3616C4FC-3B82-4F36-AD84-FDB4CA293013}"/>
+    <hyperlink ref="A68" r:id="rId41" display="https://www.educative.io/courses/grokking-the-coding-interview/JQMAmrVPL7l/preview" xr:uid="{6976768B-ADF6-4AB6-B7EB-F62098FF9C97}"/>
+    <hyperlink ref="A69" r:id="rId42" display="https://www.educative.io/courses/grokking-the-coding-interview/xVlyyv3rR93/preview" xr:uid="{ECB4469C-7688-465C-B229-D856AB806748}"/>
+    <hyperlink ref="A70" r:id="rId43" display="https://www.educative.io/courses/grokking-the-coding-interview/YVwln9kYxV2/preview" xr:uid="{CFA63AB8-54FF-4FA3-BC85-6B985F71CC80}"/>
+    <hyperlink ref="A71" r:id="rId44" display="https://www.educative.io/courses/grokking-the-coding-interview/YQykDmBnvB0/preview" xr:uid="{1972087C-632D-4774-B6F2-A4DA4B478A80}"/>
+    <hyperlink ref="A73" r:id="rId45" display="https://www.educative.io/courses/grokking-the-coding-interview/RLwKZWgMJ1q/preview" xr:uid="{6F87A6FD-CE03-4902-A284-6874D67D2161}"/>
+    <hyperlink ref="A77" r:id="rId46" display="https://www.educative.io/courses/grokking-the-coding-interview/YVjXo6J9xN9/preview" xr:uid="{7E9D63CE-8BBB-4EF5-9661-86205E49B447}"/>
+    <hyperlink ref="A78" r:id="rId47" display="https://www.educative.io/courses/grokking-the-coding-interview/B8qXVqVwDKY/preview" xr:uid="{B493E6F1-5BA9-4669-979B-48FE0FC7E517}"/>
+    <hyperlink ref="A79" r:id="rId48" display="https://www.educative.io/courses/grokking-the-coding-interview/JPnp17NYXE9/preview" xr:uid="{AE771356-7F10-45C5-A342-9651230DE20C}"/>
+    <hyperlink ref="A80" r:id="rId49" display="https://www.educative.io/courses/grokking-the-coding-interview/Y52qNM0ljWK/preview" xr:uid="{8B0E4630-3CDC-49B9-B4EA-25751D27AF34}"/>
+    <hyperlink ref="A81" r:id="rId50" display="https://www.educative.io/courses/grokking-the-coding-interview/3wEkKy6Pr9A/preview" xr:uid="{9DE42AF0-CA25-480C-A59D-D1F8C9EE8894}"/>
+    <hyperlink ref="A82" r:id="rId51" display="https://www.educative.io/courses/grokking-the-coding-interview/RLw1Pjk1GQ0/preview" xr:uid="{910A228A-431A-44E1-A439-EFA4E968A7F6}"/>
+    <hyperlink ref="A83" r:id="rId52" display="https://www.educative.io/courses/grokking-the-coding-interview/mE2LVDE3wp0/preview" xr:uid="{D03BA783-F384-49E1-B0D2-F5305DAE69FE}"/>
+    <hyperlink ref="A84" r:id="rId53" display="https://www.educative.io/courses/grokking-the-coding-interview/N7Vw2GBQr6D/preview" xr:uid="{FDD14A81-E573-4F57-AD8C-14497DFD753C}"/>
+    <hyperlink ref="A85" r:id="rId54" display="https://www.educative.io/courses/grokking-the-coding-interview/3jEXWgB5ZmM/preview" xr:uid="{640215A6-644B-4462-946B-15F7A637F25E}"/>
+    <hyperlink ref="A86" r:id="rId55" display="https://www.educative.io/courses/grokking-the-coding-interview/R1GXQ071GQ0/preview" xr:uid="{06BC641D-18BE-4F24-A201-2145A3F3CE51}"/>
+    <hyperlink ref="A87" r:id="rId56" display="https://www.educative.io/courses/grokking-the-coding-interview/q2LA7G0ANX0/preview" xr:uid="{085B0F03-7CCF-4F9A-997E-EA62F9AFCB24}"/>
+    <hyperlink ref="A89" r:id="rId57" display="https://www.educative.io/courses/grokking-the-coding-interview/g286M2Gk3YY/preview" xr:uid="{F7FBF2B2-1660-4126-9BC5-70B3846526D9}"/>
+    <hyperlink ref="A93" r:id="rId58" display="https://www.educative.io/courses/grokking-the-coding-interview/JE8vzXroA5P/preview" xr:uid="{81C7CC2B-94E4-496F-96A5-D9672B168EF9}"/>
+    <hyperlink ref="A94" r:id="rId59" display="https://www.educative.io/courses/grokking-the-coding-interview/3wENz1N4WW9/preview" xr:uid="{C9CD32B5-BE1A-48A6-810A-738EDF908465}"/>
+    <hyperlink ref="A95" r:id="rId60" display="https://www.educative.io/courses/grokking-the-coding-interview/qVANqMonoB2/preview" xr:uid="{0A64F57F-97C3-4AC9-8D7C-B8C2389503DF}"/>
+    <hyperlink ref="A96" r:id="rId61" display="https://www.educative.io/courses/grokking-the-coding-interview/RMZylvkGznR/preview" xr:uid="{8318E0A0-A306-4BC8-96E1-6FB1C6A5E824}"/>
+    <hyperlink ref="A97" r:id="rId62" display="https://www.educative.io/courses/grokking-the-coding-interview/m2YYJJRP9KG/preview" xr:uid="{E27C37B6-7453-4D09-9540-B1C7A1B7453D}"/>
+    <hyperlink ref="A98" r:id="rId63" display="https://www.educative.io/courses/grokking-the-coding-interview/q2lZKgLm980/preview" xr:uid="{AD8F1DC1-E081-40CD-9C3A-D646C5C3608D}"/>
+    <hyperlink ref="A99" r:id="rId64" display="https://www.educative.io/courses/grokking-the-coding-interview/mErolRNQ00R/preview" xr:uid="{A394B1C1-1AA6-4323-9D74-86B5789005AB}"/>
+    <hyperlink ref="A101" r:id="rId65" display="https://www.educative.io/courses/grokking-the-coding-interview/gkAM9kxgY8Z/preview" xr:uid="{ECD95814-950A-40FB-9AB4-A47352F41113}"/>
+    <hyperlink ref="A105" r:id="rId66" display="https://www.educative.io/courses/grokking-the-coding-interview/qARvkz138r3/preview" xr:uid="{FCB2E1B2-A318-413A-9D51-3C151BA0A863}"/>
+    <hyperlink ref="A106" r:id="rId67" display="https://www.educative.io/courses/grokking-the-coding-interview/xV7E64m4lnz/preview" xr:uid="{73173237-8E3B-4A69-9BAA-3768A183F9A9}"/>
+    <hyperlink ref="A107" r:id="rId68" display="https://www.educative.io/courses/grokking-the-coding-interview/m2N6GwARL8r/preview" xr:uid="{B98479FC-7FFC-4059-9AA2-753CE10AC929}"/>
+    <hyperlink ref="A108" r:id="rId69" display="https://www.educative.io/courses/grokking-the-coding-interview/qVA27MMYYn0/preview" xr:uid="{CA1C113C-A9F0-44CC-9596-CEB3EAE5CFB1}"/>
+    <hyperlink ref="A109" r:id="rId70" display="https://www.educative.io/courses/grokking-the-coding-interview/YQWkA2l67GW/preview" xr:uid="{A87BA589-47A8-4140-A16E-95E8024B904F}"/>
+    <hyperlink ref="A110" r:id="rId71" display="https://www.educative.io/courses/grokking-the-coding-interview/3jwVx84OMkO/preview" xr:uid="{45EA99DE-204B-4E1A-AF88-905FDC34B6F5}"/>
+    <hyperlink ref="A111" r:id="rId72" display="https://www.educative.io/courses/grokking-the-coding-interview/7nO4VmA74Lr/preview" xr:uid="{73B86E0C-77A9-41CE-912E-E5D0932DF11E}"/>
+    <hyperlink ref="A112" r:id="rId73" display="https://www.educative.io/courses/grokking-the-coding-interview/m2YYxXDOJ03/preview" xr:uid="{435C3ABA-15BD-4F0D-A58C-8C6379CD74C7}"/>
+    <hyperlink ref="A113" r:id="rId74" display="https://www.educative.io/courses/grokking-the-coding-interview/NE5109Jl02v/preview" xr:uid="{CF90F637-E896-4D58-84FB-A42E23BDF8E5}"/>
+    <hyperlink ref="A114" r:id="rId75" display="https://www.educative.io/courses/grokking-the-coding-interview/qVxy1qop77p/preview" xr:uid="{6163ADF9-CA69-46CA-9B10-757E99D589AC}"/>
+    <hyperlink ref="A115" r:id="rId76" display="https://www.educative.io/courses/grokking-the-coding-interview/B8nj5RB1LJo/preview" xr:uid="{A8116924-0766-4247-AC71-AEC1FF199996}"/>
+    <hyperlink ref="A116" r:id="rId77" display="https://www.educative.io/courses/grokking-the-coding-interview/gxVWnvZjMn9/preview" xr:uid="{A0CD9731-121D-479A-BFFB-BE51A8145E99}"/>
+    <hyperlink ref="A117" r:id="rId78" display="https://www.educative.io/courses/grokking-the-coding-interview/JYWqZ60LgZJ/preview" xr:uid="{312F509E-0440-4F35-AA4E-BD24F3E5922F}"/>
+    <hyperlink ref="A119" r:id="rId79" display="https://www.educative.io/courses/grokking-the-coding-interview/NEOjJormLVp/preview" xr:uid="{4BC02CE3-DB7E-4985-A202-47A3F52BC0CE}"/>
+    <hyperlink ref="A123" r:id="rId80" display="https://www.educative.io/courses/grokking-the-coding-interview/q2GxL8GWB6y/preview" xr:uid="{9E068BDA-2819-49C7-A65C-EBC4234C080F}"/>
+    <hyperlink ref="A124" r:id="rId81" display="https://www.educative.io/courses/grokking-the-coding-interview/RMlGwgpoKKY/preview" xr:uid="{56FC84EA-7D89-4FE5-AE49-0227336FD0FD}"/>
+    <hyperlink ref="A125" r:id="rId82" display="https://www.educative.io/courses/grokking-the-coding-interview/B815A0y2Ajn/preview" xr:uid="{62E99CC1-1674-4360-A777-80F3C235462D}"/>
+    <hyperlink ref="A126" r:id="rId83" display="https://www.educative.io/courses/grokking-the-coding-interview/YQ5o5vEXP69/preview" xr:uid="{C7DADFEF-4A25-47B2-A58D-85EA807CF28E}"/>
+    <hyperlink ref="A127" r:id="rId84" display="https://www.educative.io/courses/grokking-the-coding-interview/m280XNlPOkn/preview" xr:uid="{FB80A039-EF94-4994-98F4-78E02E27B381}"/>
+    <hyperlink ref="A128" r:id="rId85" display="https://www.educative.io/courses/grokking-the-coding-interview/xV2J7jvN1or/preview" xr:uid="{611E9568-FA16-47B2-B4A2-73DA4917F098}"/>
+    <hyperlink ref="A129" r:id="rId86" display="https://www.educative.io/courses/grokking-the-coding-interview/xVV1jA29YK9/preview" xr:uid="{BA47D89E-63FC-4885-AA14-785FF798BDA0}"/>
+    <hyperlink ref="A130" r:id="rId87" display="https://www.educative.io/courses/grokking-the-coding-interview/JYVW7l2L4EJ/preview" xr:uid="{E0233EAE-BA00-47EA-8486-93ABB4061EBF}"/>
+    <hyperlink ref="A131" r:id="rId88" display="https://www.educative.io/courses/grokking-the-coding-interview/B89q6NpX0Vx/preview" xr:uid="{DCB8DF68-62D3-4D93-A826-88F0BBD23BB3}"/>
+    <hyperlink ref="A133" r:id="rId89" display="https://www.educative.io/courses/grokking-the-coding-interview/xVPgnOvWVJq/preview" xr:uid="{23B8321D-3F1E-4DC0-9362-845A5E0B1EB2}"/>
+    <hyperlink ref="A137" r:id="rId90" display="https://www.educative.io/courses/grokking-the-coding-interview/xlm8k0ZND93/preview" xr:uid="{F0523594-44A0-44FA-9FAC-B455BEFC3FBE}"/>
+    <hyperlink ref="A138" r:id="rId91" display="https://www.educative.io/courses/grokking-the-coding-interview/3Yj2BmpyEy4/preview" xr:uid="{9D553B77-63BA-439F-9433-0BDF93C10DE1}"/>
+    <hyperlink ref="A139" r:id="rId92" display="https://www.educative.io/courses/grokking-the-coding-interview/3Y9jm7XRrXO/preview" xr:uid="{69B59C52-5AA2-4652-B242-792D5E902146}"/>
+    <hyperlink ref="A140" r:id="rId93" display="https://www.educative.io/courses/grokking-the-coding-interview/B6x69OLX4jY/preview" xr:uid="{1FFB948A-5308-43D4-A4FD-3E6CB3148FFA}"/>
+    <hyperlink ref="A141" r:id="rId94" display="https://www.educative.io/courses/grokking-the-coding-interview/gkkmqXO6zrY/preview" xr:uid="{9F28A483-870D-46CB-8A64-2097443EBA44}"/>
+    <hyperlink ref="A143" r:id="rId95" display="https://www.educative.io/courses/grokking-the-coding-interview/JP8VKGOEpXl/preview" xr:uid="{B6297CB9-B3E1-409E-82CD-3DD93B914399}"/>
+    <hyperlink ref="A151" r:id="rId96" display="https://www.educative.io/courses/grokking-the-coding-interview/xVlKmyX542P/preview" xr:uid="{DF5D72DA-4914-45A3-AC25-DAE77CC5E352}"/>
+    <hyperlink ref="A152" r:id="rId97" display="https://www.educative.io/courses/grokking-the-coding-interview/NEXBg8YA5A2/preview" xr:uid="{88888580-EE84-46A4-A82E-1C0A4D9CBC30}"/>
+    <hyperlink ref="A153" r:id="rId98" display="https://www.educative.io/courses/grokking-the-coding-interview/NEOZDEg5PlN/preview" xr:uid="{788EDD0B-36BD-4D4E-8E67-06BF4A31A5EA}"/>
+    <hyperlink ref="A154" r:id="rId99" display="https://www.educative.io/courses/grokking-the-coding-interview/gx7O7nO0R8l/preview" xr:uid="{58232388-B3C0-46D6-874D-DB34E475F4D0}"/>
+    <hyperlink ref="A155" r:id="rId100" display="https://www.educative.io/courses/grokking-the-coding-interview/N0Q3PKRKMPz/preview" xr:uid="{B4E07FCC-C3AF-426F-8E37-F4306D85357A}"/>
+    <hyperlink ref="A156" r:id="rId101" display="https://www.educative.io/courses/grokking-the-coding-interview/3j9V2QL3Ky9/preview" xr:uid="{7EADD3F0-2DD1-46A4-AACA-F2CD915A4E0C}"/>
+    <hyperlink ref="A157" r:id="rId102" display="https://www.educative.io/courses/grokking-the-coding-interview/xVQyDZBMpKE/preview" xr:uid="{D9115F6B-F62C-47B3-A164-1BA9DBBE2D9F}"/>
+    <hyperlink ref="A158" r:id="rId103" display="https://www.educative.io/courses/grokking-the-coding-interview/gx6BMKoWqR9/preview" xr:uid="{7B94C015-0987-47BA-99A1-0ED54E764AC6}"/>
+    <hyperlink ref="A160" r:id="rId104" display="https://www.educative.io/courses/grokking-the-coding-interview/NE1V3EDAnWN/preview" xr:uid="{542CCAF9-CE94-4291-BB48-419209BEBF26}"/>
+    <hyperlink ref="A164" r:id="rId105" display="https://www.educative.io/courses/grokking-the-coding-interview/JQJOO357VDo/preview" xr:uid="{2F573BD0-CE95-4EC9-8904-21E0708D6F83}"/>
+    <hyperlink ref="A165" r:id="rId106" display="https://www.educative.io/courses/grokking-the-coding-interview/R8LzZQlj8lO/preview" xr:uid="{836DF62A-AA58-40D1-A249-0254F7DF2452}"/>
+    <hyperlink ref="A166" r:id="rId107" display="https://www.educative.io/courses/grokking-the-coding-interview/qA5wW7R8ox7/preview" xr:uid="{EE29ADEF-B895-46F6-A6F9-70975F3BBEA6}"/>
+    <hyperlink ref="A167" r:id="rId108" display="https://www.educative.io/courses/grokking-the-coding-interview/g2w6QPBA2Nk/preview" xr:uid="{6C376FA3-D9B4-4455-9A42-CC1582FAA52F}"/>
+    <hyperlink ref="A168" r:id="rId109" display="https://www.educative.io/courses/grokking-the-coding-interview/R1B78K9oBEz/preview" xr:uid="{7129D5FD-02C2-492A-B5BA-9F90AED7839E}"/>
+    <hyperlink ref="A169" r:id="rId110" display="https://www.educative.io/courses/grokking-the-coding-interview/B1ZW38kXJB2/preview" xr:uid="{39FEBDBC-15FE-44F3-88F2-9B8B342F1B85}"/>
+    <hyperlink ref="A170" r:id="rId111" display="https://www.educative.io/courses/grokking-the-coding-interview/mymvP915LY9/preview" xr:uid="{8CAD68BF-4543-48DE-9721-A2D7A11913D7}"/>
+    <hyperlink ref="A171" r:id="rId112" display="https://www.educative.io/courses/grokking-the-coding-interview/RMyRR6wZoYK/preview" xr:uid="{382B95CD-0772-46E2-99CA-83A7704ADA0A}"/>
+    <hyperlink ref="A172" r:id="rId113" display="https://www.educative.io/courses/grokking-the-coding-interview/mEGORlpZYJE/preview" xr:uid="{1C668556-07C9-4638-A895-39791EBD61B4}"/>
+    <hyperlink ref="A173" r:id="rId114" display="https://www.educative.io/courses/grokking-the-coding-interview/7n3BlOvqW0r/preview" xr:uid="{ECC929D4-8A1A-4055-BDE7-7469D2348396}"/>
+    <hyperlink ref="A174" r:id="rId115" display="https://www.educative.io/courses/grokking-the-coding-interview/N8XZQ1q1O46/preview" xr:uid="{CEEDBAD2-1D20-44ED-85D2-8B2131CA708D}"/>
+    <hyperlink ref="A175" r:id="rId116" display="https://www.educative.io/courses/grokking-the-coding-interview/RMPVM2Y4PW0/preview" xr:uid="{24B1D191-FB33-4234-B0B9-B8C8C000559C}"/>
+    <hyperlink ref="A176" r:id="rId117" display="https://www.educative.io/courses/grokking-the-coding-interview/7nPmB8mZ6vj/preview" xr:uid="{6A496FE7-8B1C-41C5-8207-7D47241D1F3C}"/>
+    <hyperlink ref="A178" r:id="rId118" display="https://www.educative.io/courses/grokking-the-coding-interview/R1v4P0R7VZw/preview" xr:uid="{C724D185-E0D0-4B90-9765-C60D0878DBA7}"/>
+    <hyperlink ref="A182" r:id="rId119" display="https://www.educative.io/courses/grokking-the-coding-interview/RLPGq6Vx0YY/preview" xr:uid="{55361017-E83F-4812-B85D-4E16D4D0B3F5}"/>
+    <hyperlink ref="A183" r:id="rId120" display="https://www.educative.io/courses/grokking-the-coding-interview/gk20xz4VwpG/preview" xr:uid="{A5AD2251-ABE2-46BD-81A7-97A8905ADE19}"/>
+    <hyperlink ref="A184" r:id="rId121" display="https://www.educative.io/courses/grokking-the-coding-interview/N7VMDGgr9Vm/preview" xr:uid="{7D936DEE-3AF1-418B-9301-3D3E66518228}"/>
+    <hyperlink ref="A185" r:id="rId122" display="https://www.educative.io/courses/grokking-the-coding-interview/N0yqGR18jND/preview" xr:uid="{C299A026-23F7-4EFD-B923-27EEE02CC681}"/>
+    <hyperlink ref="A186" r:id="rId123" display="https://www.educative.io/courses/grokking-the-coding-interview/xoExKDNWq8n/preview" xr:uid="{EA93C4AF-0068-4647-847A-992D848B8689}"/>
+    <hyperlink ref="A188" r:id="rId124" display="https://www.educative.io/courses/grokking-the-coding-interview/3j7zEJzL2y9/preview" xr:uid="{2C83D2DD-DA2D-4D70-990E-708C743ABA79}"/>
+    <hyperlink ref="A192" r:id="rId125" display="https://www.educative.io/courses/grokking-the-coding-interview/7XBApZGoEvj/preview" xr:uid="{DA8965A0-FB14-49C0-AE49-161E4836CE2E}"/>
+    <hyperlink ref="A193" r:id="rId126" display="https://www.educative.io/courses/grokking-the-coding-interview/RM535yM9DW0/preview" xr:uid="{8081122D-02C9-4211-9983-0CCEE5F6D3D9}"/>
+    <hyperlink ref="A194" r:id="rId127" display="https://www.educative.io/courses/grokking-the-coding-interview/gxxPGn8vE8G/preview" xr:uid="{DDC60F23-B1DB-4A46-B0CD-F0F91066F9D8}"/>
+    <hyperlink ref="A195" r:id="rId128" display="https://www.educative.io/courses/grokking-the-coding-interview/3YxNVYwNR5p/preview" xr:uid="{2D1D488D-8F6F-4170-BB83-8078DA33E6A8}"/>
+    <hyperlink ref="A196" r:id="rId129" display="https://www.educative.io/courses/grokking-the-coding-interview/qVZmZJVxPY0/preview" xr:uid="{B3B0C5D3-5DD0-4CB3-8573-7232FD984427}"/>
+    <hyperlink ref="A197" r:id="rId130" display="https://www.educative.io/courses/grokking-the-coding-interview/B89rvR6XZ3J/preview" xr:uid="{10B3A578-1262-4D16-9F9F-9C8CF42FF8A4}"/>
+    <hyperlink ref="A198" r:id="rId131" display="https://www.educative.io/courses/grokking-the-coding-interview/gxZz615BPPG/preview" xr:uid="{911966F2-D48C-40D6-8986-2CFF34191C5F}"/>
+    <hyperlink ref="A199" r:id="rId132" display="https://www.educative.io/courses/grokking-the-coding-interview/B819G5DZBxX/preview" xr:uid="{4DBC5754-0E31-4C73-9FCC-5892833EE6A6}"/>
+    <hyperlink ref="A200" r:id="rId133" display="https://www.educative.io/courses/grokking-the-coding-interview/N8MJQNYyJPL/preview" xr:uid="{635428AE-01AB-42A7-AD25-0D6927198379}"/>
+    <hyperlink ref="A201" r:id="rId134" display="https://www.educative.io/courses/grokking-the-coding-interview/gx6oKY8PGYY/preview" xr:uid="{9E39BD7F-1846-4FC4-8718-E7C1E3FF4CF3}"/>
+    <hyperlink ref="A202" r:id="rId135" display="https://www.educative.io/courses/grokking-the-coding-interview/qVljv3Plr67/preview" xr:uid="{E08FC35A-4EE5-4205-ABD2-B12FF132C598}"/>
+    <hyperlink ref="A203" r:id="rId136" display="https://www.educative.io/courses/grokking-the-coding-interview/xV7wx4o8ymB/preview" xr:uid="{03EA684B-4E43-4425-88A5-AC42F2CD29C2}"/>
+    <hyperlink ref="A204" r:id="rId137" display="https://www.educative.io/courses/grokking-the-coding-interview/m2E4y26k3LE/preview" xr:uid="{15AE30C7-FCBD-41B9-869A-1FE2B9401DC2}"/>
+    <hyperlink ref="A205" r:id="rId138" display="https://www.educative.io/courses/grokking-the-coding-interview/qA7n6820GjG/preview" xr:uid="{4BB8D6A4-3CAF-4E5E-A914-623458A3DB79}"/>
+    <hyperlink ref="A206" r:id="rId139" display="https://www.educative.io/courses/grokking-the-coding-interview/JYB20zgR32o/preview" xr:uid="{FAF4321B-D0D0-4AD9-9FB4-6CDA12D5920F}"/>
+    <hyperlink ref="A207" r:id="rId140" display="https://www.educative.io/courses/grokking-the-coding-interview/B1gBkopEBzk/preview" xr:uid="{79B2563D-5F79-4E25-B9EF-1E5FE51CDF90}"/>
+    <hyperlink ref="A208" r:id="rId141" display="https://www.educative.io/courses/grokking-the-coding-interview/Y5zDWlVRz2p/preview" xr:uid="{F1ECDEAA-6FFE-4C7D-8F6F-A1FCA1A01F07}"/>
+    <hyperlink ref="A210" r:id="rId142" display="https://www.educative.io/courses/grokking-the-coding-interview/R8o6vV83DLY/preview" xr:uid="{BEE9F91E-B97E-440C-9FF5-B372D6FC9E02}"/>
+    <hyperlink ref="A214" r:id="rId143" display="https://www.educative.io/courses/grokking-the-coding-interview/xlGGNlQr8jE/preview" xr:uid="{3CF27AF0-A512-4FE0-A30A-D08A85D0D464}"/>
+    <hyperlink ref="A215" r:id="rId144" display="https://www.educative.io/courses/grokking-the-coding-interview/Y5n0n3vAgYK/preview" xr:uid="{4E0A39DC-1405-433C-8796-12299CAEB99E}"/>
+    <hyperlink ref="A216" r:id="rId145" display="https://www.educative.io/courses/grokking-the-coding-interview/myAqDMyRXn3/preview" xr:uid="{843BC5D6-B8B8-4568-9309-AC5B267ACD1E}"/>
+    <hyperlink ref="A218" r:id="rId146" display="https://www.educative.io/courses/grokking-the-coding-interview/JPGWDNRx3w2/preview" xr:uid="{623B79AC-F921-483A-96E7-E922C31EA4A7}"/>
+    <hyperlink ref="A219" r:id="rId147" display="https://www.educative.io/courses/grokking-the-coding-interview/B1JKxRB8EDJ/preview" xr:uid="{1C5AE1D4-2035-49E4-AFE7-77EFDD29BBDB}"/>
+    <hyperlink ref="A221" r:id="rId148" display="https://www.educative.io/courses/grokking-the-coding-interview/N767x7VoYmK/preview" xr:uid="{C4725FD0-BF6E-4CEB-96AF-A1112502127E}"/>
+    <hyperlink ref="A225" r:id="rId149" display="https://www.educative.io/courses/grokking-the-coding-interview/N7py7KWvmzK/preview" xr:uid="{336A6E4C-6C41-4BEA-8E95-E45BA724F32B}"/>
+    <hyperlink ref="A226" r:id="rId150" display="https://www.educative.io/courses/grokking-the-coding-interview/gkZNLjV2kBk/preview" xr:uid="{101095BA-304D-4DC9-BFF2-7B5688FEE611}"/>
+    <hyperlink ref="A227" r:id="rId151" display="https://www.educative.io/courses/grokking-the-coding-interview/g7QYlD8RwRr/preview" xr:uid="{3FD375B4-FE30-42E4-A5D8-B1FCA9F6BC03}"/>
+    <hyperlink ref="A228" r:id="rId152" display="https://www.educative.io/courses/grokking-the-coding-interview/gxrnL0GQGqk/preview" xr:uid="{1CEB6865-3765-4558-9BF7-2E0FB652229E}"/>
+    <hyperlink ref="A229" r:id="rId153" display="https://www.educative.io/courses/grokking-the-coding-interview/mE53y85Wqw9/preview" xr:uid="{A4AB3781-BD13-4EFE-BAE9-704AC89B0C8C}"/>
+    <hyperlink ref="A230" r:id="rId154" display="https://www.educative.io/courses/grokking-the-coding-interview/qZgJyPqwJ80/preview" xr:uid="{9AB40D67-B2B4-4207-A75D-54D053C7F3AC}"/>
+    <hyperlink ref="A231" r:id="rId155" display="https://www.educative.io/courses/grokking-the-coding-interview/3w5ZMYAOLMA/preview" xr:uid="{B44C6177-2E68-4705-A7C8-11D032751423}"/>
+    <hyperlink ref="A232" r:id="rId156" display="https://www.educative.io/courses/grokking-the-coding-interview/qZWW7Ny0Dk3/preview" xr:uid="{B5AC3AC4-26A3-4D57-BA25-127312359511}"/>
+    <hyperlink ref="A234" r:id="rId157" display="https://www.educative.io/courses/grokking-the-coding-interview/JE0BWB8DgAJ/preview" xr:uid="{7045ACB6-DEBE-47EE-94E1-BEEE15EF904A}"/>
+    <hyperlink ref="A238" r:id="rId158" display="https://www.educative.io/courses/grokking-the-coding-interview/myNkP2AQw19/preview" xr:uid="{7E0098B4-A051-4A67-B1B4-41A5552CCF00}"/>
+    <hyperlink ref="A239" r:id="rId159" display="https://www.educative.io/courses/grokking-the-coding-interview/m25rBmwLV00/preview" xr:uid="{E27ABDBC-51B4-4851-BE25-8E45364F0ACF}"/>
+    <hyperlink ref="A240" r:id="rId160" display="https://www.educative.io/courses/grokking-the-coding-interview/gxJrM9goEMr/preview" xr:uid="{62D34660-493A-43DB-ABF8-EE12F0EED11F}"/>
+    <hyperlink ref="A241" r:id="rId161" display="https://www.educative.io/courses/grokking-the-coding-interview/BnnArPGKolJ/preview" xr:uid="{9A4578CF-C1EF-4F7F-BF8D-3FC228FA144B}"/>
+    <hyperlink ref="A242" r:id="rId162" display="https://www.educative.io/courses/grokking-the-coding-interview/q2YmVjQMMr3/preview" xr:uid="{411CEF4B-5076-4679-A64B-159CC536F731}"/>
+    <hyperlink ref="A243" r:id="rId163" display="https://www.educative.io/courses/grokking-the-coding-interview/R8AJWOMxw2q/preview" xr:uid="{C4B5BF7A-642D-4A67-A522-78A3ADD51A8E}"/>
+    <hyperlink ref="A244" r:id="rId164" display="https://www.educative.io/courses/grokking-the-coding-interview/m20NY0Rwz7A/preview" xr:uid="{4F549B5A-1EC5-41A4-9A98-5A73487EA394}"/>
+    <hyperlink ref="A245" r:id="rId165" display="https://www.educative.io/courses/grokking-the-coding-interview/m7VAO5OrQr3/preview" xr:uid="{3C2A0858-9EE7-4613-B2E7-0D4252F1D752}"/>
+    <hyperlink ref="A246" r:id="rId166" display="https://www.educative.io/courses/grokking-the-coding-interview/3Ym408v7NQA/preview" xr:uid="{A522B54E-A9FE-422A-8D7C-71842E78CE6D}"/>
+    <hyperlink ref="A248" r:id="rId167" display="https://www.educative.io/courses/grokking-the-coding-interview/7nDN8y7JKVA/preview" xr:uid="{6334402B-02D6-4053-88D2-FA860C474785}"/>
+    <hyperlink ref="A253" r:id="rId168" display="https://www.educative.io/courses/grokking-the-coding-interview/myJK6Wvj00R/preview" xr:uid="{F5F019C0-AE1C-48A3-B6E1-7C6B362F92A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFBE6E6-9F99-4FFC-A12B-664FDF6B51A6}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -11184,28 +14657,28 @@
       <c r="F33" s="28"/>
     </row>
     <row r="34" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="68">
+      <c r="A34" s="74">
         <v>671</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71">
+      <c r="C34" s="80"/>
+      <c r="D34" s="77">
         <v>0.43099999999999999</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="67"/>
+      <c r="F34" s="79"/>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="67"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11274,107 +14747,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2622E9F0-D204-440B-AF73-6DE69631CC00}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
-        <v>1114</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34">
-        <v>0.59</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
-        <v>1117</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="38">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="39"/>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
-        <v>1115</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
-        <v>1116</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="40"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://leetcode.com/problems/print-in-order" xr:uid="{C77CFB35-3DDF-4B13-B6E6-B7C884B41030}"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://leetcode.com/problems/building-h2o" xr:uid="{28E944D3-3169-42C5-B1A1-76DFFC43B3A8}"/>
-    <hyperlink ref="B7" r:id="rId3" display="https://leetcode.com/problems/print-foobar-alternately" xr:uid="{243A77BB-0966-41FE-A261-4EDDD0607808}"/>
-    <hyperlink ref="B8" r:id="rId4" display="https://leetcode.com/problems/print-zero-even-odd" xr:uid="{020799DB-7D28-4A7F-A158-F871F5CE6C49}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>